--- a/BackTest/2019-10-10 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-10 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>300.4</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>10</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L13" t="n">
         <v>300.7</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>11</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>40</v>
+      </c>
       <c r="L14" t="n">
         <v>301.1</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>11</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>55.55555555555556</v>
+      </c>
       <c r="L15" t="n">
         <v>301.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>11</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>75</v>
+      </c>
       <c r="L16" t="n">
         <v>302</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>302.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>11</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>303.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>11</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>100</v>
+      </c>
       <c r="L19" t="n">
         <v>303.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>12</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>100</v>
+      </c>
       <c r="L20" t="n">
         <v>303.8</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>14</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>303.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>14</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>303.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>14</v>
       </c>
       <c r="K23" t="n">
-        <v>23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L23" t="n">
         <v>303.8</v>
@@ -1466,7 +1488,7 @@
         <v>16</v>
       </c>
       <c r="K24" t="n">
-        <v>6.666666666666667</v>
+        <v>-60</v>
       </c>
       <c r="L24" t="n">
         <v>303.5</v>
@@ -1515,7 +1537,7 @@
         <v>18</v>
       </c>
       <c r="K25" t="n">
-        <v>17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L25" t="n">
         <v>303.4</v>
@@ -1564,7 +1586,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="n">
-        <v>17.64705882352941</v>
+        <v>-25</v>
       </c>
       <c r="L26" t="n">
         <v>303.2</v>
@@ -1613,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>29.41176470588236</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L27" t="n">
         <v>303.1</v>
@@ -1662,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="n">
-        <v>37.5</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L28" t="n">
         <v>303</v>
@@ -1711,7 +1733,7 @@
         <v>21</v>
       </c>
       <c r="K29" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L29" t="n">
         <v>302.8</v>
@@ -1760,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="K30" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L30" t="n">
         <v>302.5</v>
@@ -1809,7 +1831,7 @@
         <v>21</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L31" t="n">
         <v>302.4</v>
@@ -1860,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L32" t="n">
         <v>302.3</v>
@@ -1911,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>302.3</v>
@@ -1962,7 +1984,7 @@
         <v>22</v>
       </c>
       <c r="K34" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>302.5</v>
@@ -2013,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="K35" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L35" t="n">
         <v>302.5</v>
@@ -2064,7 +2086,7 @@
         <v>23</v>
       </c>
       <c r="K36" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L36" t="n">
         <v>302.5</v>
@@ -2115,7 +2137,7 @@
         <v>23</v>
       </c>
       <c r="K37" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>302.4</v>
@@ -2166,7 +2188,7 @@
         <v>23</v>
       </c>
       <c r="K38" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>302.3</v>
@@ -2217,7 +2239,7 @@
         <v>24</v>
       </c>
       <c r="K39" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>302.2</v>
@@ -2268,7 +2290,7 @@
         <v>25</v>
       </c>
       <c r="K40" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L40" t="n">
         <v>302</v>
@@ -2319,7 +2341,7 @@
         <v>27</v>
       </c>
       <c r="K41" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>302</v>
@@ -2370,7 +2392,7 @@
         <v>28</v>
       </c>
       <c r="K42" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>301.9</v>
@@ -2421,7 +2443,7 @@
         <v>28</v>
       </c>
       <c r="K43" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L43" t="n">
         <v>301.7</v>
@@ -2472,7 +2494,7 @@
         <v>29</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.692307692307693</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L44" t="n">
         <v>301.4</v>
@@ -2523,7 +2545,7 @@
         <v>29</v>
       </c>
       <c r="K45" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L45" t="n">
         <v>301.1</v>
@@ -2574,7 +2596,7 @@
         <v>29</v>
       </c>
       <c r="K46" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L46" t="n">
         <v>300.9</v>
@@ -2625,7 +2647,7 @@
         <v>30</v>
       </c>
       <c r="K47" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L47" t="n">
         <v>300.8</v>
@@ -2676,7 +2698,7 @@
         <v>30</v>
       </c>
       <c r="K48" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>300.7</v>
@@ -2727,7 +2749,7 @@
         <v>30</v>
       </c>
       <c r="K49" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L49" t="n">
         <v>300.7</v>
@@ -2778,7 +2800,7 @@
         <v>30</v>
       </c>
       <c r="K50" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L50" t="n">
         <v>300.8</v>
@@ -2829,7 +2851,7 @@
         <v>31</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>300.8</v>
@@ -2880,7 +2902,7 @@
         <v>32</v>
       </c>
       <c r="K52" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L52" t="n">
         <v>301</v>
@@ -2931,7 +2953,7 @@
         <v>33</v>
       </c>
       <c r="K53" t="n">
-        <v>-9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L53" t="n">
         <v>301.1</v>
@@ -2982,7 +3004,7 @@
         <v>33</v>
       </c>
       <c r="K54" t="n">
-        <v>-9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L54" t="n">
         <v>301.3</v>
@@ -3033,7 +3055,7 @@
         <v>33</v>
       </c>
       <c r="K55" t="n">
-        <v>-9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L55" t="n">
         <v>301.5</v>
@@ -3084,7 +3106,7 @@
         <v>34</v>
       </c>
       <c r="K56" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
         <v>301.8</v>
@@ -3135,7 +3157,7 @@
         <v>35</v>
       </c>
       <c r="K57" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L57" t="n">
         <v>302.1</v>
@@ -3186,7 +3208,7 @@
         <v>36</v>
       </c>
       <c r="K58" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>302.3</v>
@@ -3237,7 +3259,7 @@
         <v>37</v>
       </c>
       <c r="K59" t="n">
-        <v>23.07692307692308</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L59" t="n">
         <v>302.6</v>
@@ -3288,7 +3310,7 @@
         <v>39</v>
       </c>
       <c r="K60" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>302.7</v>
@@ -3339,7 +3361,7 @@
         <v>41</v>
       </c>
       <c r="K61" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L61" t="n">
         <v>302.9</v>
@@ -3390,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="K62" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>302.8</v>
@@ -3441,7 +3463,7 @@
         <v>44</v>
       </c>
       <c r="K63" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L63" t="n">
         <v>302.9</v>
@@ -3492,7 +3514,7 @@
         <v>45</v>
       </c>
       <c r="K64" t="n">
-        <v>25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L64" t="n">
         <v>303.1</v>
@@ -3543,7 +3565,7 @@
         <v>45</v>
       </c>
       <c r="K65" t="n">
-        <v>25</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L65" t="n">
         <v>303.3</v>
@@ -3594,7 +3616,7 @@
         <v>45</v>
       </c>
       <c r="K66" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>303.4</v>
@@ -3645,7 +3667,7 @@
         <v>45</v>
       </c>
       <c r="K67" t="n">
-        <v>20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L67" t="n">
         <v>303.4</v>
@@ -3696,7 +3718,7 @@
         <v>45</v>
       </c>
       <c r="K68" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>303.5</v>
@@ -3751,7 +3773,7 @@
         <v>45</v>
       </c>
       <c r="K69" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L69" t="n">
         <v>303.5</v>
@@ -3808,7 +3830,7 @@
         <v>46</v>
       </c>
       <c r="K70" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L70" t="n">
         <v>303.6</v>
@@ -3983,7 +4005,7 @@
         <v>48</v>
       </c>
       <c r="K73" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L73" t="n">
         <v>303.5</v>
@@ -4046,7 +4068,7 @@
         <v>48</v>
       </c>
       <c r="K74" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L74" t="n">
         <v>303.4</v>
@@ -4109,7 +4131,7 @@
         <v>48</v>
       </c>
       <c r="K75" t="n">
-        <v>6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L75" t="n">
         <v>303.3</v>
@@ -4172,7 +4194,7 @@
         <v>48</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L76" t="n">
         <v>303.2</v>
@@ -4298,7 +4320,7 @@
         <v>49</v>
       </c>
       <c r="K78" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>303.2</v>
@@ -4361,7 +4383,7 @@
         <v>50</v>
       </c>
       <c r="K79" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>303.1</v>
@@ -4424,7 +4446,7 @@
         <v>50</v>
       </c>
       <c r="K80" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>303.1</v>
@@ -4487,7 +4509,7 @@
         <v>50</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>303.2</v>
@@ -4550,7 +4572,7 @@
         <v>51</v>
       </c>
       <c r="K82" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>303.3</v>
@@ -4672,7 +4694,7 @@
         <v>53</v>
       </c>
       <c r="K84" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>303.2</v>
@@ -4733,7 +4755,7 @@
         <v>54</v>
       </c>
       <c r="K85" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>303.2</v>
@@ -4796,7 +4818,7 @@
         <v>55</v>
       </c>
       <c r="K86" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L86" t="n">
         <v>303.1</v>
@@ -4855,7 +4877,7 @@
         <v>55</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>302.9</v>
@@ -4912,7 +4934,7 @@
         <v>56</v>
       </c>
       <c r="K88" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>302.8</v>
@@ -4969,7 +4991,7 @@
         <v>56</v>
       </c>
       <c r="K89" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>302.8</v>
@@ -5026,7 +5048,7 @@
         <v>57</v>
       </c>
       <c r="K90" t="n">
-        <v>9.090909090909092</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L90" t="n">
         <v>302.9</v>
@@ -5077,7 +5099,7 @@
         <v>57</v>
       </c>
       <c r="K91" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>303</v>
@@ -5179,7 +5201,7 @@
         <v>58</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L93" t="n">
         <v>302.9</v>
@@ -5230,7 +5252,7 @@
         <v>59</v>
       </c>
       <c r="K94" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>302.9</v>
@@ -5281,7 +5303,7 @@
         <v>60</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>302.9</v>
@@ -5332,7 +5354,7 @@
         <v>60</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>303</v>
@@ -5383,7 +5405,7 @@
         <v>60</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>303.1</v>
@@ -5434,7 +5456,7 @@
         <v>61</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L98" t="n">
         <v>303.2</v>
@@ -5485,7 +5507,7 @@
         <v>63</v>
       </c>
       <c r="K99" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>303.1</v>
@@ -5536,7 +5558,7 @@
         <v>64</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L100" t="n">
         <v>303</v>
@@ -5638,7 +5660,7 @@
         <v>65</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L102" t="n">
         <v>303</v>
@@ -5689,7 +5711,7 @@
         <v>66</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L103" t="n">
         <v>303</v>
@@ -5740,7 +5762,7 @@
         <v>68</v>
       </c>
       <c r="K104" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L104" t="n">
         <v>303.3</v>
@@ -5791,7 +5813,7 @@
         <v>68</v>
       </c>
       <c r="K105" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L105" t="n">
         <v>303.5</v>
@@ -5842,7 +5864,7 @@
         <v>68</v>
       </c>
       <c r="K106" t="n">
-        <v>23.07692307692308</v>
+        <v>25</v>
       </c>
       <c r="L106" t="n">
         <v>303.7</v>
@@ -5893,7 +5915,7 @@
         <v>68</v>
       </c>
       <c r="K107" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>303.9</v>
@@ -5944,7 +5966,7 @@
         <v>68</v>
       </c>
       <c r="K108" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L108" t="n">
         <v>304</v>
@@ -5995,7 +6017,7 @@
         <v>69</v>
       </c>
       <c r="K109" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L109" t="n">
         <v>304.2</v>
@@ -6046,7 +6068,7 @@
         <v>70</v>
       </c>
       <c r="K110" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>304.2</v>
@@ -6097,7 +6119,7 @@
         <v>71</v>
       </c>
       <c r="K111" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>304.1</v>
@@ -6148,7 +6170,7 @@
         <v>71</v>
       </c>
       <c r="K112" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L112" t="n">
         <v>303.9</v>
@@ -6199,7 +6221,7 @@
         <v>71</v>
       </c>
       <c r="K113" t="n">
-        <v>-7.692307692307693</v>
+        <v>-100</v>
       </c>
       <c r="L113" t="n">
         <v>303.8</v>
@@ -6250,7 +6272,7 @@
         <v>71</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L114" t="n">
         <v>303.5</v>
@@ -6301,7 +6323,7 @@
         <v>72</v>
       </c>
       <c r="K115" t="n">
-        <v>-16.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L115" t="n">
         <v>303.1</v>
@@ -6352,7 +6374,7 @@
         <v>73</v>
       </c>
       <c r="K116" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L116" t="n">
         <v>302.8</v>
@@ -6403,7 +6425,7 @@
         <v>74</v>
       </c>
       <c r="K117" t="n">
-        <v>-14.28571428571428</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L117" t="n">
         <v>302.4</v>
@@ -6454,7 +6476,7 @@
         <v>74</v>
       </c>
       <c r="K118" t="n">
-        <v>-23.07692307692308</v>
+        <v>-60</v>
       </c>
       <c r="L118" t="n">
         <v>302</v>
@@ -6505,7 +6527,7 @@
         <v>74</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L119" t="n">
         <v>301.7</v>
@@ -6556,7 +6578,7 @@
         <v>76</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L120" t="n">
         <v>301.7</v>
@@ -6607,7 +6629,7 @@
         <v>77</v>
       </c>
       <c r="K121" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>301.7</v>
@@ -6658,7 +6680,7 @@
         <v>77</v>
       </c>
       <c r="K122" t="n">
-        <v>-16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>301.7</v>
@@ -6709,7 +6731,7 @@
         <v>77</v>
       </c>
       <c r="K123" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>301.7</v>
@@ -6760,7 +6782,7 @@
         <v>77</v>
       </c>
       <c r="K124" t="n">
-        <v>-33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L124" t="n">
         <v>301.7</v>
@@ -6811,7 +6833,7 @@
         <v>77</v>
       </c>
       <c r="K125" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
         <v>301.8</v>
@@ -6862,7 +6884,7 @@
         <v>77</v>
       </c>
       <c r="K126" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>301.8</v>
@@ -6913,7 +6935,7 @@
         <v>77</v>
       </c>
       <c r="K127" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L127" t="n">
         <v>301.9</v>
@@ -6964,7 +6986,7 @@
         <v>77</v>
       </c>
       <c r="K128" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L128" t="n">
         <v>302</v>
@@ -7015,7 +7037,7 @@
         <v>77</v>
       </c>
       <c r="K129" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L129" t="n">
         <v>302.1</v>
@@ -7066,7 +7088,7 @@
         <v>78</v>
       </c>
       <c r="K130" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L130" t="n">
         <v>301.9</v>
@@ -7117,7 +7139,7 @@
         <v>78</v>
       </c>
       <c r="K131" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L131" t="n">
         <v>301.8</v>
@@ -7168,7 +7190,7 @@
         <v>78</v>
       </c>
       <c r="K132" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L132" t="n">
         <v>301.7</v>
@@ -7219,7 +7241,7 @@
         <v>78</v>
       </c>
       <c r="K133" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L133" t="n">
         <v>301.6</v>
@@ -7270,7 +7292,7 @@
         <v>79</v>
       </c>
       <c r="K134" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L134" t="n">
         <v>301.4</v>
@@ -7321,7 +7343,7 @@
         <v>79</v>
       </c>
       <c r="K135" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L135" t="n">
         <v>301.2</v>
@@ -7372,7 +7394,7 @@
         <v>79</v>
       </c>
       <c r="K136" t="n">
-        <v>-33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L136" t="n">
         <v>301</v>
@@ -7423,7 +7445,7 @@
         <v>79</v>
       </c>
       <c r="K137" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L137" t="n">
         <v>300.8</v>
@@ -7474,7 +7496,7 @@
         <v>79</v>
       </c>
       <c r="K138" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L138" t="n">
         <v>300.6</v>
@@ -7525,7 +7547,7 @@
         <v>79</v>
       </c>
       <c r="K139" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L139" t="n">
         <v>300.4</v>
@@ -7728,9 +7750,7 @@
       <c r="J143" t="n">
         <v>79</v>
       </c>
-      <c r="K143" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>300</v>
       </c>
@@ -7779,9 +7799,7 @@
       <c r="J144" t="n">
         <v>79</v>
       </c>
-      <c r="K144" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>300</v>
       </c>
@@ -7830,9 +7848,7 @@
       <c r="J145" t="n">
         <v>79</v>
       </c>
-      <c r="K145" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>300</v>
       </c>
@@ -7881,9 +7897,7 @@
       <c r="J146" t="n">
         <v>79</v>
       </c>
-      <c r="K146" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>300</v>
       </c>
@@ -7932,9 +7946,7 @@
       <c r="J147" t="n">
         <v>79</v>
       </c>
-      <c r="K147" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>300</v>
       </c>
@@ -7983,9 +7995,7 @@
       <c r="J148" t="n">
         <v>79</v>
       </c>
-      <c r="K148" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>300</v>
       </c>
@@ -8034,9 +8044,7 @@
       <c r="J149" t="n">
         <v>79</v>
       </c>
-      <c r="K149" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>300</v>
       </c>
@@ -8085,9 +8093,7 @@
       <c r="J150" t="n">
         <v>79</v>
       </c>
-      <c r="K150" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>300</v>
       </c>
@@ -8136,9 +8142,7 @@
       <c r="J151" t="n">
         <v>79</v>
       </c>
-      <c r="K151" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>300</v>
       </c>
@@ -8187,9 +8191,7 @@
       <c r="J152" t="n">
         <v>79</v>
       </c>
-      <c r="K152" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>300</v>
       </c>
@@ -8238,9 +8240,7 @@
       <c r="J153" t="n">
         <v>79</v>
       </c>
-      <c r="K153" t="n">
-        <v>-100</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>300</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>86</v>
       </c>
       <c r="K170" t="n">
-        <v>-71.42857142857143</v>
+        <v>-60</v>
       </c>
       <c r="L170" t="n">
         <v>294.9</v>
@@ -9145,7 +9145,7 @@
         <v>87</v>
       </c>
       <c r="K171" t="n">
-        <v>-75</v>
+        <v>-50</v>
       </c>
       <c r="L171" t="n">
         <v>294.5</v>
@@ -9196,7 +9196,7 @@
         <v>87</v>
       </c>
       <c r="K172" t="n">
-        <v>-75</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>294.3</v>
@@ -9247,7 +9247,7 @@
         <v>87</v>
       </c>
       <c r="K173" t="n">
-        <v>-75</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L173" t="n">
         <v>294.2</v>
@@ -9298,7 +9298,7 @@
         <v>88</v>
       </c>
       <c r="K174" t="n">
-        <v>-77.77777777777779</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L174" t="n">
         <v>294</v>
@@ -9349,7 +9349,7 @@
         <v>89</v>
       </c>
       <c r="K175" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>294</v>
@@ -9400,7 +9400,7 @@
         <v>89</v>
       </c>
       <c r="K176" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>294</v>
@@ -9451,7 +9451,7 @@
         <v>89</v>
       </c>
       <c r="K177" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>294</v>
@@ -9502,7 +9502,7 @@
         <v>90</v>
       </c>
       <c r="K178" t="n">
-        <v>-45.45454545454545</v>
+        <v>20</v>
       </c>
       <c r="L178" t="n">
         <v>294.1</v>
@@ -9553,7 +9553,7 @@
         <v>90</v>
       </c>
       <c r="K179" t="n">
-        <v>-45.45454545454545</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>294.2</v>
@@ -9604,7 +9604,7 @@
         <v>90</v>
       </c>
       <c r="K180" t="n">
-        <v>-40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L180" t="n">
         <v>294.2</v>
@@ -9655,7 +9655,7 @@
         <v>91</v>
       </c>
       <c r="K181" t="n">
-        <v>-20</v>
+        <v>50</v>
       </c>
       <c r="L181" t="n">
         <v>294.4</v>
@@ -9706,7 +9706,7 @@
         <v>92</v>
       </c>
       <c r="K182" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L182" t="n">
         <v>294.5</v>
@@ -9757,7 +9757,7 @@
         <v>93</v>
       </c>
       <c r="K183" t="n">
-        <v>11.11111111111111</v>
+        <v>60</v>
       </c>
       <c r="L183" t="n">
         <v>294.7</v>
@@ -9808,7 +9808,7 @@
         <v>94</v>
       </c>
       <c r="K184" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L184" t="n">
         <v>295.1</v>
@@ -9859,7 +9859,7 @@
         <v>94</v>
       </c>
       <c r="K185" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L185" t="n">
         <v>295.4</v>
@@ -9910,7 +9910,7 @@
         <v>95</v>
       </c>
       <c r="K186" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L186" t="n">
         <v>295.6</v>
@@ -10012,7 +10012,7 @@
         <v>96</v>
       </c>
       <c r="K188" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>296</v>
@@ -10063,7 +10063,7 @@
         <v>96</v>
       </c>
       <c r="K189" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>296.2</v>
@@ -10165,7 +10165,7 @@
         <v>96</v>
       </c>
       <c r="K191" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L191" t="n">
         <v>296.5</v>
@@ -10216,7 +10216,7 @@
         <v>97</v>
       </c>
       <c r="K192" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L192" t="n">
         <v>296.8</v>
@@ -10267,7 +10267,7 @@
         <v>97</v>
       </c>
       <c r="K193" t="n">
-        <v>40</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>297</v>
@@ -10318,7 +10318,7 @@
         <v>100</v>
       </c>
       <c r="K194" t="n">
-        <v>16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L194" t="n">
         <v>296.8</v>
@@ -10369,7 +10369,7 @@
         <v>103</v>
       </c>
       <c r="K195" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="L195" t="n">
         <v>296.9</v>
@@ -10420,7 +10420,7 @@
         <v>107</v>
       </c>
       <c r="K196" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="L196" t="n">
         <v>297.5</v>
@@ -10471,7 +10471,7 @@
         <v>111</v>
       </c>
       <c r="K197" t="n">
-        <v>18.18181818181818</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L197" t="n">
         <v>297.7</v>
@@ -10522,7 +10522,7 @@
         <v>112</v>
       </c>
       <c r="K198" t="n">
-        <v>18.18181818181818</v>
+        <v>12.5</v>
       </c>
       <c r="L198" t="n">
         <v>297.9</v>
@@ -10573,7 +10573,7 @@
         <v>115</v>
       </c>
       <c r="K199" t="n">
-        <v>28</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L199" t="n">
         <v>298.4</v>
@@ -10624,7 +10624,7 @@
         <v>116</v>
       </c>
       <c r="K200" t="n">
-        <v>23.07692307692308</v>
+        <v>20</v>
       </c>
       <c r="L200" t="n">
         <v>298.8</v>
@@ -10675,7 +10675,7 @@
         <v>116</v>
       </c>
       <c r="K201" t="n">
-        <v>20</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L201" t="n">
         <v>299.2</v>
@@ -10726,7 +10726,7 @@
         <v>116</v>
       </c>
       <c r="K202" t="n">
-        <v>25</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L202" t="n">
         <v>299.5</v>
@@ -10777,7 +10777,7 @@
         <v>117</v>
       </c>
       <c r="K203" t="n">
-        <v>16.66666666666666</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L203" t="n">
         <v>299.7</v>
@@ -10828,7 +10828,7 @@
         <v>118</v>
       </c>
       <c r="K204" t="n">
-        <v>16.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="L204" t="n">
         <v>300.3</v>
@@ -10879,7 +10879,7 @@
         <v>118</v>
       </c>
       <c r="K205" t="n">
-        <v>16.66666666666666</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L205" t="n">
         <v>300.6</v>
@@ -10930,7 +10930,7 @@
         <v>118</v>
       </c>
       <c r="K206" t="n">
-        <v>21.73913043478261</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L206" t="n">
         <v>300.5</v>
@@ -10981,7 +10981,7 @@
         <v>118</v>
       </c>
       <c r="K207" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L207" t="n">
         <v>300.8</v>
@@ -11032,7 +11032,7 @@
         <v>119</v>
       </c>
       <c r="K208" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>301.1</v>
@@ -11083,7 +11083,7 @@
         <v>119</v>
       </c>
       <c r="K209" t="n">
-        <v>21.73913043478261</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L209" t="n">
         <v>301.1</v>
@@ -11134,7 +11134,7 @@
         <v>121</v>
       </c>
       <c r="K210" t="n">
-        <v>12</v>
+        <v>-20</v>
       </c>
       <c r="L210" t="n">
         <v>301</v>
@@ -11185,7 +11185,7 @@
         <v>122</v>
       </c>
       <c r="K211" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>301</v>
@@ -11236,7 +11236,7 @@
         <v>122</v>
       </c>
       <c r="K212" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L212" t="n">
         <v>301</v>
@@ -11287,7 +11287,7 @@
         <v>122</v>
       </c>
       <c r="K213" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>301.1</v>
@@ -11338,7 +11338,7 @@
         <v>123</v>
       </c>
       <c r="K214" t="n">
-        <v>30.43478260869566</v>
+        <v>20</v>
       </c>
       <c r="L214" t="n">
         <v>301.2</v>
@@ -11389,7 +11389,7 @@
         <v>124</v>
       </c>
       <c r="K215" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L215" t="n">
         <v>301.4</v>
@@ -11440,7 +11440,7 @@
         <v>124</v>
       </c>
       <c r="K216" t="n">
-        <v>5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>301.6</v>
@@ -11491,7 +11491,7 @@
         <v>127</v>
       </c>
       <c r="K217" t="n">
-        <v>12.5</v>
+        <v>-25</v>
       </c>
       <c r="L217" t="n">
         <v>301.5</v>
@@ -11542,7 +11542,7 @@
         <v>129</v>
       </c>
       <c r="K218" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>301.5</v>
@@ -11593,7 +11593,7 @@
         <v>129</v>
       </c>
       <c r="K219" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L219" t="n">
         <v>301.5</v>
@@ -11644,7 +11644,7 @@
         <v>129</v>
       </c>
       <c r="K220" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L220" t="n">
         <v>301.7</v>
@@ -11695,7 +11695,7 @@
         <v>130</v>
       </c>
       <c r="K221" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L221" t="n">
         <v>301.9</v>
@@ -11746,7 +11746,7 @@
         <v>130</v>
       </c>
       <c r="K222" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L222" t="n">
         <v>302.1</v>
@@ -11797,7 +11797,7 @@
         <v>130</v>
       </c>
       <c r="K223" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L223" t="n">
         <v>302.3</v>
@@ -11848,7 +11848,7 @@
         <v>130</v>
       </c>
       <c r="K224" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L224" t="n">
         <v>302.4</v>
@@ -11899,7 +11899,7 @@
         <v>130</v>
       </c>
       <c r="K225" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>302.4</v>
@@ -11950,7 +11950,7 @@
         <v>132</v>
       </c>
       <c r="K226" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
         <v>302.2</v>
@@ -12001,7 +12001,7 @@
         <v>132</v>
       </c>
       <c r="K227" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>302.3</v>
@@ -12052,7 +12052,7 @@
         <v>133</v>
       </c>
       <c r="K228" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L228" t="n">
         <v>302.1</v>
@@ -12103,7 +12103,7 @@
         <v>133</v>
       </c>
       <c r="K229" t="n">
-        <v>-14.28571428571428</v>
+        <v>-50</v>
       </c>
       <c r="L229" t="n">
         <v>301.9</v>
@@ -12154,7 +12154,7 @@
         <v>133</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L230" t="n">
         <v>301.7</v>
@@ -12205,7 +12205,7 @@
         <v>135</v>
       </c>
       <c r="K231" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L231" t="n">
         <v>301.6</v>
@@ -12256,7 +12256,7 @@
         <v>136</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>301.4</v>
@@ -12307,7 +12307,7 @@
         <v>137</v>
       </c>
       <c r="K233" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L233" t="n">
         <v>301.3</v>
@@ -12358,7 +12358,7 @@
         <v>137</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L234" t="n">
         <v>301.2</v>
@@ -12409,7 +12409,7 @@
         <v>138</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>301.2</v>
@@ -12460,7 +12460,7 @@
         <v>140</v>
       </c>
       <c r="K236" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>301.2</v>
@@ -12511,7 +12511,7 @@
         <v>141</v>
       </c>
       <c r="K237" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L237" t="n">
         <v>301.3</v>
@@ -12562,7 +12562,7 @@
         <v>141</v>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L238" t="n">
         <v>301.5</v>
@@ -12613,7 +12613,7 @@
         <v>142</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.692307692307693</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L239" t="n">
         <v>301.6</v>
@@ -12664,7 +12664,7 @@
         <v>144</v>
       </c>
       <c r="K240" t="n">
-        <v>6.666666666666667</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L240" t="n">
         <v>301.9</v>
@@ -12715,7 +12715,7 @@
         <v>145</v>
       </c>
       <c r="K241" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L241" t="n">
         <v>302.1</v>
@@ -12766,7 +12766,7 @@
         <v>147</v>
       </c>
       <c r="K242" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L242" t="n">
         <v>302.2</v>
@@ -12817,7 +12817,7 @@
         <v>147</v>
       </c>
       <c r="K243" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L243" t="n">
         <v>302.2</v>
@@ -12919,7 +12919,7 @@
         <v>149</v>
       </c>
       <c r="K245" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L245" t="n">
         <v>302.2</v>
@@ -12970,7 +12970,7 @@
         <v>149</v>
       </c>
       <c r="K246" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L246" t="n">
         <v>302.3</v>
@@ -13072,7 +13072,7 @@
         <v>150</v>
       </c>
       <c r="K248" t="n">
-        <v>17.64705882352941</v>
+        <v>25</v>
       </c>
       <c r="L248" t="n">
         <v>302.5</v>
@@ -13123,7 +13123,7 @@
         <v>151</v>
       </c>
       <c r="K249" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L249" t="n">
         <v>302.8</v>
@@ -13174,7 +13174,7 @@
         <v>152</v>
       </c>
       <c r="K250" t="n">
-        <v>26.31578947368421</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L250" t="n">
         <v>303</v>
@@ -13225,7 +13225,7 @@
         <v>152</v>
       </c>
       <c r="K251" t="n">
-        <v>17.64705882352941</v>
+        <v>60</v>
       </c>
       <c r="L251" t="n">
         <v>303.1</v>
@@ -13276,7 +13276,7 @@
         <v>153</v>
       </c>
       <c r="K252" t="n">
-        <v>29.41176470588236</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L252" t="n">
         <v>303.5</v>
@@ -13327,7 +13327,7 @@
         <v>154</v>
       </c>
       <c r="K253" t="n">
-        <v>29.41176470588236</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L253" t="n">
         <v>304</v>
@@ -13378,7 +13378,7 @@
         <v>155</v>
       </c>
       <c r="K254" t="n">
-        <v>22.22222222222222</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L254" t="n">
         <v>304.3</v>
@@ -13429,7 +13429,7 @@
         <v>156</v>
       </c>
       <c r="K255" t="n">
-        <v>22.22222222222222</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L255" t="n">
         <v>304.8</v>
@@ -13480,7 +13480,7 @@
         <v>156</v>
       </c>
       <c r="K256" t="n">
-        <v>37.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L256" t="n">
         <v>305.3</v>
@@ -13531,7 +13531,7 @@
         <v>156</v>
       </c>
       <c r="K257" t="n">
-        <v>33.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L257" t="n">
         <v>305.7</v>
@@ -13582,7 +13582,7 @@
         <v>157</v>
       </c>
       <c r="K258" t="n">
-        <v>37.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L258" t="n">
         <v>306.2</v>
@@ -13633,7 +13633,7 @@
         <v>158</v>
       </c>
       <c r="K259" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L259" t="n">
         <v>306.7</v>
@@ -13684,7 +13684,7 @@
         <v>158</v>
       </c>
       <c r="K260" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L260" t="n">
         <v>307.1</v>
@@ -13735,7 +13735,7 @@
         <v>159</v>
       </c>
       <c r="K261" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L261" t="n">
         <v>307.6</v>
@@ -13837,7 +13837,7 @@
         <v>161</v>
       </c>
       <c r="K263" t="n">
-        <v>71.42857142857143</v>
+        <v>100</v>
       </c>
       <c r="L263" t="n">
         <v>308.7</v>
@@ -13888,7 +13888,7 @@
         <v>161</v>
       </c>
       <c r="K264" t="n">
-        <v>69.23076923076923</v>
+        <v>100</v>
       </c>
       <c r="L264" t="n">
         <v>309.3</v>
@@ -13939,7 +13939,7 @@
         <v>161</v>
       </c>
       <c r="K265" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L265" t="n">
         <v>309.8</v>
@@ -13990,7 +13990,7 @@
         <v>161</v>
       </c>
       <c r="K266" t="n">
-        <v>83.33333333333334</v>
+        <v>100</v>
       </c>
       <c r="L266" t="n">
         <v>310.3</v>
@@ -14041,7 +14041,7 @@
         <v>161</v>
       </c>
       <c r="K267" t="n">
-        <v>81.81818181818183</v>
+        <v>100</v>
       </c>
       <c r="L267" t="n">
         <v>310.8</v>
@@ -14092,7 +14092,7 @@
         <v>161</v>
       </c>
       <c r="K268" t="n">
-        <v>81.81818181818183</v>
+        <v>100</v>
       </c>
       <c r="L268" t="n">
         <v>311.2</v>
@@ -14143,7 +14143,7 @@
         <v>162</v>
       </c>
       <c r="K269" t="n">
-        <v>81.81818181818183</v>
+        <v>100</v>
       </c>
       <c r="L269" t="n">
         <v>311.6</v>
@@ -14194,7 +14194,7 @@
         <v>165</v>
       </c>
       <c r="K270" t="n">
-        <v>38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>311.7</v>
@@ -14245,7 +14245,7 @@
         <v>165</v>
       </c>
       <c r="K271" t="n">
-        <v>38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L271" t="n">
         <v>311.7</v>
@@ -14296,7 +14296,7 @@
         <v>168</v>
       </c>
       <c r="K272" t="n">
-        <v>46.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L272" t="n">
         <v>311.8</v>
@@ -14347,7 +14347,7 @@
         <v>169</v>
       </c>
       <c r="K273" t="n">
-        <v>46.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L273" t="n">
         <v>312</v>
@@ -14398,7 +14398,7 @@
         <v>169</v>
       </c>
       <c r="K274" t="n">
-        <v>57.14285714285714</v>
+        <v>25</v>
       </c>
       <c r="L274" t="n">
         <v>312.2</v>
@@ -14449,7 +14449,7 @@
         <v>169</v>
       </c>
       <c r="K275" t="n">
-        <v>53.84615384615385</v>
+        <v>25</v>
       </c>
       <c r="L275" t="n">
         <v>312.4</v>
@@ -14500,7 +14500,7 @@
         <v>170</v>
       </c>
       <c r="K276" t="n">
-        <v>57.14285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L276" t="n">
         <v>312.7</v>
@@ -14551,7 +14551,7 @@
         <v>170</v>
       </c>
       <c r="K277" t="n">
-        <v>57.14285714285714</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L277" t="n">
         <v>313</v>
@@ -14602,7 +14602,7 @@
         <v>170</v>
       </c>
       <c r="K278" t="n">
-        <v>53.84615384615385</v>
+        <v>25</v>
       </c>
       <c r="L278" t="n">
         <v>313.3</v>
@@ -14653,7 +14653,7 @@
         <v>170</v>
       </c>
       <c r="K279" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L279" t="n">
         <v>313.5</v>
@@ -14704,7 +14704,7 @@
         <v>171</v>
       </c>
       <c r="K280" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L280" t="n">
         <v>314.1</v>
@@ -14755,7 +14755,7 @@
         <v>171</v>
       </c>
       <c r="K281" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L281" t="n">
         <v>314.7</v>
@@ -14806,7 +14806,7 @@
         <v>172</v>
       </c>
       <c r="K282" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L282" t="n">
         <v>315.1</v>
@@ -14857,7 +14857,7 @@
         <v>172</v>
       </c>
       <c r="K283" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L283" t="n">
         <v>315.4</v>
@@ -14908,7 +14908,7 @@
         <v>174</v>
       </c>
       <c r="K284" t="n">
-        <v>53.84615384615385</v>
+        <v>100</v>
       </c>
       <c r="L284" t="n">
         <v>315.9</v>
@@ -14959,7 +14959,7 @@
         <v>175</v>
       </c>
       <c r="K285" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L285" t="n">
         <v>316.5</v>
@@ -15010,7 +15010,7 @@
         <v>175</v>
       </c>
       <c r="K286" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L286" t="n">
         <v>317</v>
@@ -15061,7 +15061,7 @@
         <v>175</v>
       </c>
       <c r="K287" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L287" t="n">
         <v>317.5</v>
@@ -15112,7 +15112,7 @@
         <v>176</v>
       </c>
       <c r="K288" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L288" t="n">
         <v>318.1</v>
@@ -15163,7 +15163,7 @@
         <v>177</v>
       </c>
       <c r="K289" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="L289" t="n">
         <v>318.8</v>
@@ -15367,7 +15367,7 @@
         <v>179</v>
       </c>
       <c r="K293" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="L293" t="n">
         <v>321.3</v>
@@ -15418,7 +15418,7 @@
         <v>179</v>
       </c>
       <c r="K294" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L294" t="n">
         <v>321.6</v>
@@ -15469,7 +15469,7 @@
         <v>179</v>
       </c>
       <c r="K295" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="L295" t="n">
         <v>321.8</v>
@@ -15520,7 +15520,7 @@
         <v>179</v>
       </c>
       <c r="K296" t="n">
-        <v>77.77777777777779</v>
+        <v>50</v>
       </c>
       <c r="L296" t="n">
         <v>322</v>
@@ -15571,7 +15571,7 @@
         <v>179</v>
       </c>
       <c r="K297" t="n">
-        <v>77.77777777777779</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>322.2</v>
@@ -15622,7 +15622,7 @@
         <v>180</v>
       </c>
       <c r="K298" t="n">
-        <v>80</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>322.4</v>
@@ -15673,7 +15673,7 @@
         <v>180</v>
       </c>
       <c r="K299" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>322.5</v>
@@ -15724,7 +15724,7 @@
         <v>181</v>
       </c>
       <c r="K300" t="n">
-        <v>80</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>322.6</v>
@@ -15775,7 +15775,7 @@
         <v>182</v>
       </c>
       <c r="K301" t="n">
-        <v>63.63636363636363</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>322.6</v>
@@ -15826,7 +15826,7 @@
         <v>183</v>
       </c>
       <c r="K302" t="n">
-        <v>63.63636363636363</v>
+        <v>50</v>
       </c>
       <c r="L302" t="n">
         <v>322.7</v>
@@ -15877,7 +15877,7 @@
         <v>183</v>
       </c>
       <c r="K303" t="n">
-        <v>63.63636363636363</v>
+        <v>50</v>
       </c>
       <c r="L303" t="n">
         <v>322.9</v>
@@ -15928,7 +15928,7 @@
         <v>183</v>
       </c>
       <c r="K304" t="n">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="L304" t="n">
         <v>323.1</v>
@@ -16030,7 +16030,7 @@
         <v>187</v>
       </c>
       <c r="K306" t="n">
-        <v>66.66666666666666</v>
+        <v>75</v>
       </c>
       <c r="L306" t="n">
         <v>323.9</v>
@@ -16081,7 +16081,7 @@
         <v>189</v>
       </c>
       <c r="K307" t="n">
-        <v>71.42857142857143</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L307" t="n">
         <v>324.7</v>
@@ -16132,7 +16132,7 @@
         <v>190</v>
       </c>
       <c r="K308" t="n">
-        <v>57.14285714285714</v>
+        <v>60</v>
       </c>
       <c r="L308" t="n">
         <v>325.3</v>
@@ -16183,7 +16183,7 @@
         <v>190</v>
       </c>
       <c r="K309" t="n">
-        <v>53.84615384615385</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L309" t="n">
         <v>325.9</v>
@@ -16234,7 +16234,7 @@
         <v>191</v>
       </c>
       <c r="K310" t="n">
-        <v>53.84615384615385</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L310" t="n">
         <v>326.5</v>
@@ -16285,7 +16285,7 @@
         <v>191</v>
       </c>
       <c r="K311" t="n">
-        <v>53.84615384615385</v>
+        <v>75</v>
       </c>
       <c r="L311" t="n">
         <v>327.2</v>
@@ -16336,7 +16336,7 @@
         <v>192</v>
       </c>
       <c r="K312" t="n">
-        <v>42.85714285714285</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L312" t="n">
         <v>327.7</v>
@@ -16387,7 +16387,7 @@
         <v>196</v>
       </c>
       <c r="K313" t="n">
-        <v>17.64705882352941</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L313" t="n">
         <v>327.8</v>
@@ -16438,7 +16438,7 @@
         <v>197</v>
       </c>
       <c r="K314" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>327.8</v>
@@ -16489,7 +16489,7 @@
         <v>200</v>
       </c>
       <c r="K315" t="n">
-        <v>-4.761904761904762</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L315" t="n">
         <v>327.5</v>
@@ -16540,7 +16540,7 @@
         <v>202</v>
       </c>
       <c r="K316" t="n">
-        <v>4.347826086956522</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L316" t="n">
         <v>327</v>
@@ -16591,7 +16591,7 @@
         <v>203</v>
       </c>
       <c r="K317" t="n">
-        <v>8.333333333333332</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L317" t="n">
         <v>326.4</v>
@@ -16642,7 +16642,7 @@
         <v>204</v>
       </c>
       <c r="K318" t="n">
-        <v>8.333333333333332</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L318" t="n">
         <v>326</v>
@@ -16693,7 +16693,7 @@
         <v>205</v>
       </c>
       <c r="K319" t="n">
-        <v>12</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L319" t="n">
         <v>325.7</v>
@@ -16744,7 +16744,7 @@
         <v>206</v>
       </c>
       <c r="K320" t="n">
-        <v>4</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L320" t="n">
         <v>325.2</v>
@@ -16795,7 +16795,7 @@
         <v>209</v>
       </c>
       <c r="K321" t="n">
-        <v>-3.703703703703703</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L321" t="n">
         <v>324.4</v>
@@ -16846,7 +16846,7 @@
         <v>210</v>
       </c>
       <c r="K322" t="n">
-        <v>-11.11111111111111</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L322" t="n">
         <v>323.6</v>
@@ -16897,7 +16897,7 @@
         <v>211</v>
       </c>
       <c r="K323" t="n">
-        <v>-14.28571428571428</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L323" t="n">
         <v>323.1</v>
@@ -16948,7 +16948,7 @@
         <v>212</v>
       </c>
       <c r="K324" t="n">
-        <v>-10.3448275862069</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>322.8</v>
@@ -16999,7 +16999,7 @@
         <v>212</v>
       </c>
       <c r="K325" t="n">
-        <v>-10.3448275862069</v>
+        <v>-20</v>
       </c>
       <c r="L325" t="n">
         <v>322.8</v>
@@ -17050,7 +17050,7 @@
         <v>214</v>
       </c>
       <c r="K326" t="n">
-        <v>-18.51851851851852</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L326" t="n">
         <v>322.8</v>
@@ -17152,7 +17152,7 @@
         <v>221</v>
       </c>
       <c r="K328" t="n">
-        <v>-41.93548387096774</v>
+        <v>-62.5</v>
       </c>
       <c r="L328" t="n">
         <v>321.6</v>
@@ -17203,7 +17203,7 @@
         <v>224</v>
       </c>
       <c r="K329" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L329" t="n">
         <v>320.9</v>
@@ -17254,7 +17254,7 @@
         <v>225</v>
       </c>
       <c r="K330" t="n">
-        <v>-35.29411764705883</v>
+        <v>-25</v>
       </c>
       <c r="L330" t="n">
         <v>320.2</v>
@@ -17305,7 +17305,7 @@
         <v>227</v>
       </c>
       <c r="K331" t="n">
-        <v>-38.88888888888889</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L331" t="n">
         <v>319.6</v>
@@ -17356,7 +17356,7 @@
         <v>228</v>
       </c>
       <c r="K332" t="n">
-        <v>-33.33333333333333</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L332" t="n">
         <v>319.2</v>
@@ -17407,7 +17407,7 @@
         <v>230</v>
       </c>
       <c r="K333" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L333" t="n">
         <v>318.7</v>
@@ -17458,7 +17458,7 @@
         <v>231</v>
       </c>
       <c r="K334" t="n">
-        <v>-29.41176470588236</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L334" t="n">
         <v>318</v>
@@ -17509,7 +17509,7 @@
         <v>231</v>
       </c>
       <c r="K335" t="n">
-        <v>-22.58064516129032</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L335" t="n">
         <v>317.3</v>
@@ -17560,7 +17560,7 @@
         <v>232</v>
       </c>
       <c r="K336" t="n">
-        <v>-26.66666666666667</v>
+        <v>-37.5</v>
       </c>
       <c r="L336" t="n">
         <v>316.5</v>
@@ -17611,7 +17611,7 @@
         <v>232</v>
       </c>
       <c r="K337" t="n">
-        <v>-31.03448275862069</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L337" t="n">
         <v>315.9</v>
@@ -17662,7 +17662,7 @@
         <v>233</v>
       </c>
       <c r="K338" t="n">
-        <v>-37.93103448275862</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L338" t="n">
         <v>315.7</v>
@@ -17713,7 +17713,7 @@
         <v>237</v>
       </c>
       <c r="K339" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L339" t="n">
         <v>314.8</v>
@@ -17764,7 +17764,7 @@
         <v>240</v>
       </c>
       <c r="K340" t="n">
-        <v>-35.29411764705883</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L340" t="n">
         <v>314.3</v>
@@ -17815,7 +17815,7 @@
         <v>241</v>
       </c>
       <c r="K341" t="n">
-        <v>-25</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L341" t="n">
         <v>314.1</v>
@@ -17866,7 +17866,7 @@
         <v>242</v>
       </c>
       <c r="K342" t="n">
-        <v>-25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L342" t="n">
         <v>313.7</v>
@@ -17917,7 +17917,7 @@
         <v>242</v>
       </c>
       <c r="K343" t="n">
-        <v>-22.58064516129032</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L343" t="n">
         <v>313.5</v>
@@ -17968,7 +17968,7 @@
         <v>244</v>
       </c>
       <c r="K344" t="n">
-        <v>-18.75</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L344" t="n">
         <v>313.6</v>
@@ -18019,7 +18019,7 @@
         <v>245</v>
       </c>
       <c r="K345" t="n">
-        <v>-21.21212121212121</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L345" t="n">
         <v>313.6</v>
@@ -18070,7 +18070,7 @@
         <v>246</v>
       </c>
       <c r="K346" t="n">
-        <v>-31.25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L346" t="n">
         <v>313.4</v>
@@ -18121,7 +18121,7 @@
         <v>247</v>
       </c>
       <c r="K347" t="n">
-        <v>-29.03225806451613</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L347" t="n">
         <v>313.1</v>
@@ -18172,7 +18172,7 @@
         <v>247</v>
       </c>
       <c r="K348" t="n">
-        <v>-15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L348" t="n">
         <v>312.9</v>
@@ -18223,7 +18223,7 @@
         <v>248</v>
       </c>
       <c r="K349" t="n">
-        <v>-33.33333333333333</v>
+        <v>-25</v>
       </c>
       <c r="L349" t="n">
         <v>313</v>
@@ -18274,7 +18274,7 @@
         <v>249</v>
       </c>
       <c r="K350" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L350" t="n">
         <v>312.7</v>
@@ -18325,7 +18325,7 @@
         <v>250</v>
       </c>
       <c r="K351" t="n">
-        <v>-30.43478260869566</v>
+        <v>-50</v>
       </c>
       <c r="L351" t="n">
         <v>312.2</v>
@@ -18376,7 +18376,7 @@
         <v>251</v>
       </c>
       <c r="K352" t="n">
-        <v>-39.1304347826087</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L352" t="n">
         <v>311.7</v>
@@ -18427,7 +18427,7 @@
         <v>252</v>
       </c>
       <c r="K353" t="n">
-        <v>-36.36363636363637</v>
+        <v>-100</v>
       </c>
       <c r="L353" t="n">
         <v>311.1</v>
@@ -18478,7 +18478,7 @@
         <v>255</v>
       </c>
       <c r="K354" t="n">
-        <v>-41.66666666666667</v>
+        <v>-100</v>
       </c>
       <c r="L354" t="n">
         <v>310</v>
@@ -18529,7 +18529,7 @@
         <v>257</v>
       </c>
       <c r="K355" t="n">
-        <v>-46.15384615384615</v>
+        <v>-100</v>
       </c>
       <c r="L355" t="n">
         <v>308.8</v>
@@ -18580,7 +18580,7 @@
         <v>260</v>
       </c>
       <c r="K356" t="n">
-        <v>-35.71428571428572</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L356" t="n">
         <v>308</v>
@@ -18631,7 +18631,7 @@
         <v>260</v>
       </c>
       <c r="K357" t="n">
-        <v>-35.71428571428572</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L357" t="n">
         <v>307.3</v>
@@ -18682,7 +18682,7 @@
         <v>261</v>
       </c>
       <c r="K358" t="n">
-        <v>-35.71428571428572</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L358" t="n">
         <v>306.5</v>
@@ -18733,7 +18733,7 @@
         <v>263</v>
       </c>
       <c r="K359" t="n">
-        <v>-15.38461538461539</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L359" t="n">
         <v>306</v>
@@ -18784,7 +18784,7 @@
         <v>264</v>
       </c>
       <c r="K360" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L360" t="n">
         <v>305.5</v>
@@ -18835,7 +18835,7 @@
         <v>266</v>
       </c>
       <c r="K361" t="n">
-        <v>-28</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L361" t="n">
         <v>305.3</v>
@@ -18886,7 +18886,7 @@
         <v>267</v>
       </c>
       <c r="K362" t="n">
-        <v>-28</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L362" t="n">
         <v>305.1</v>
@@ -18937,7 +18937,7 @@
         <v>267</v>
       </c>
       <c r="K363" t="n">
-        <v>-28</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L363" t="n">
         <v>305</v>
@@ -18988,7 +18988,7 @@
         <v>268</v>
       </c>
       <c r="K364" t="n">
-        <v>-33.33333333333333</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L364" t="n">
         <v>305.3</v>
@@ -19039,7 +19039,7 @@
         <v>271</v>
       </c>
       <c r="K365" t="n">
-        <v>-15.38461538461539</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L365" t="n">
         <v>306.1</v>
@@ -19090,7 +19090,7 @@
         <v>272</v>
       </c>
       <c r="K366" t="n">
-        <v>-15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>306.5</v>
@@ -19141,7 +19141,7 @@
         <v>273</v>
       </c>
       <c r="K367" t="n">
-        <v>-15.38461538461539</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L367" t="n">
         <v>306.8</v>
@@ -19192,7 +19192,7 @@
         <v>273</v>
       </c>
       <c r="K368" t="n">
-        <v>-15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L368" t="n">
         <v>307.2</v>
@@ -19243,7 +19243,7 @@
         <v>278</v>
       </c>
       <c r="K369" t="n">
-        <v>-26.66666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L369" t="n">
         <v>306.9</v>
@@ -19294,7 +19294,7 @@
         <v>283</v>
       </c>
       <c r="K370" t="n">
-        <v>-5.88235294117647</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="L370" t="n">
         <v>307.2</v>
@@ -19345,7 +19345,7 @@
         <v>285</v>
       </c>
       <c r="K371" t="n">
-        <v>2.857142857142857</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L371" t="n">
         <v>307.5</v>
@@ -19396,7 +19396,7 @@
         <v>286</v>
       </c>
       <c r="K372" t="n">
-        <v>2.857142857142857</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L372" t="n">
         <v>307.8</v>
@@ -19447,7 +19447,7 @@
         <v>290</v>
       </c>
       <c r="K373" t="n">
-        <v>15.78947368421053</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L373" t="n">
         <v>308.5</v>
@@ -19498,7 +19498,7 @@
         <v>290</v>
       </c>
       <c r="K374" t="n">
-        <v>25.71428571428571</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L374" t="n">
         <v>309.1</v>
@@ -19549,7 +19549,7 @@
         <v>293</v>
       </c>
       <c r="K375" t="n">
-        <v>22.22222222222222</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L375" t="n">
         <v>309.1</v>
@@ -19600,7 +19600,7 @@
         <v>295</v>
       </c>
       <c r="K376" t="n">
-        <v>20</v>
+        <v>18.18181818181818</v>
       </c>
       <c r="L376" t="n">
         <v>309.4</v>
@@ -19651,7 +19651,7 @@
         <v>297</v>
       </c>
       <c r="K377" t="n">
-        <v>24.32432432432433</v>
+        <v>25</v>
       </c>
       <c r="L377" t="n">
         <v>310</v>
@@ -19702,7 +19702,7 @@
         <v>298</v>
       </c>
       <c r="K378" t="n">
-        <v>29.72972972972973</v>
+        <v>60</v>
       </c>
       <c r="L378" t="n">
         <v>310.7</v>
@@ -19753,7 +19753,7 @@
         <v>299</v>
       </c>
       <c r="K379" t="n">
-        <v>27.77777777777778</v>
+        <v>50</v>
       </c>
       <c r="L379" t="n">
         <v>312</v>
@@ -19804,7 +19804,7 @@
         <v>302</v>
       </c>
       <c r="K380" t="n">
-        <v>36.84210526315789</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L380" t="n">
         <v>313.1</v>
@@ -19855,7 +19855,7 @@
         <v>302</v>
       </c>
       <c r="K381" t="n">
-        <v>33.33333333333333</v>
+        <v>62.5</v>
       </c>
       <c r="L381" t="n">
         <v>314</v>
@@ -19906,7 +19906,7 @@
         <v>302</v>
       </c>
       <c r="K382" t="n">
-        <v>37.14285714285715</v>
+        <v>50</v>
       </c>
       <c r="L382" t="n">
         <v>315</v>
@@ -19957,7 +19957,7 @@
         <v>303</v>
       </c>
       <c r="K383" t="n">
-        <v>38.88888888888889</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L383" t="n">
         <v>315.7</v>
@@ -20008,7 +20008,7 @@
         <v>304</v>
       </c>
       <c r="K384" t="n">
-        <v>38.88888888888889</v>
+        <v>100</v>
       </c>
       <c r="L384" t="n">
         <v>316.5</v>
@@ -20059,7 +20059,7 @@
         <v>304</v>
       </c>
       <c r="K385" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L385" t="n">
         <v>317.6</v>
@@ -20110,7 +20110,7 @@
         <v>305</v>
       </c>
       <c r="K386" t="n">
-        <v>33.33333333333333</v>
+        <v>75</v>
       </c>
       <c r="L386" t="n">
         <v>318.4</v>
@@ -20161,7 +20161,7 @@
         <v>308</v>
       </c>
       <c r="K387" t="n">
-        <v>42.85714285714285</v>
+        <v>80</v>
       </c>
       <c r="L387" t="n">
         <v>319.3</v>
@@ -20212,7 +20212,7 @@
         <v>308</v>
       </c>
       <c r="K388" t="n">
-        <v>42.85714285714285</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L388" t="n">
         <v>320.1</v>
@@ -20263,7 +20263,7 @@
         <v>311</v>
       </c>
       <c r="K389" t="n">
-        <v>51.51515151515152</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L389" t="n">
         <v>320.5</v>
@@ -20314,7 +20314,7 @@
         <v>313</v>
       </c>
       <c r="K390" t="n">
-        <v>33.33333333333333</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L390" t="n">
         <v>320.4</v>
@@ -20365,7 +20365,7 @@
         <v>315</v>
       </c>
       <c r="K391" t="n">
-        <v>33.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L391" t="n">
         <v>320.5</v>
@@ -20416,7 +20416,7 @@
         <v>317</v>
       </c>
       <c r="K392" t="n">
-        <v>41.93548387096774</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L392" t="n">
         <v>320.8</v>
@@ -20467,7 +20467,7 @@
         <v>317</v>
       </c>
       <c r="K393" t="n">
-        <v>33.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L393" t="n">
         <v>321</v>
@@ -20518,7 +20518,7 @@
         <v>322</v>
       </c>
       <c r="K394" t="n">
-        <v>12.5</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L394" t="n">
         <v>320.6</v>
@@ -20569,7 +20569,7 @@
         <v>323</v>
       </c>
       <c r="K395" t="n">
-        <v>26.66666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L395" t="n">
         <v>320.3</v>
@@ -20620,7 +20620,7 @@
         <v>327</v>
       </c>
       <c r="K396" t="n">
-        <v>6.25</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L396" t="n">
         <v>319.7</v>
@@ -20671,7 +20671,7 @@
         <v>327</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L397" t="n">
         <v>318.8</v>
@@ -20722,7 +20722,7 @@
         <v>327</v>
       </c>
       <c r="K398" t="n">
-        <v>-3.448275862068965</v>
+        <v>-37.5</v>
       </c>
       <c r="L398" t="n">
         <v>317.9</v>
@@ -20773,7 +20773,7 @@
         <v>327</v>
       </c>
       <c r="K399" t="n">
-        <v>-7.142857142857142</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L399" t="n">
         <v>317.3</v>
@@ -20824,7 +20824,7 @@
         <v>328</v>
       </c>
       <c r="K400" t="n">
-        <v>-15.38461538461539</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L400" t="n">
         <v>317</v>
@@ -20875,7 +20875,7 @@
         <v>328</v>
       </c>
       <c r="K401" t="n">
-        <v>-15.38461538461539</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L401" t="n">
         <v>316.5</v>
@@ -20926,7 +20926,7 @@
         <v>329</v>
       </c>
       <c r="K402" t="n">
-        <v>-11.11111111111111</v>
+        <v>-50</v>
       </c>
       <c r="L402" t="n">
         <v>315.9</v>
@@ -20977,7 +20977,7 @@
         <v>329</v>
       </c>
       <c r="K403" t="n">
-        <v>-15.38461538461539</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L403" t="n">
         <v>315.3</v>
@@ -21028,7 +21028,7 @@
         <v>331</v>
       </c>
       <c r="K404" t="n">
-        <v>-25.92592592592592</v>
+        <v>-50</v>
       </c>
       <c r="L404" t="n">
         <v>315</v>
@@ -21079,7 +21079,7 @@
         <v>339</v>
       </c>
       <c r="K405" t="n">
-        <v>-42.85714285714285</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L405" t="n">
         <v>313.8</v>
@@ -21130,7 +21130,7 @@
         <v>344</v>
       </c>
       <c r="K406" t="n">
-        <v>-23.07692307692308</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L406" t="n">
         <v>313.5</v>
@@ -21181,7 +21181,7 @@
         <v>346</v>
       </c>
       <c r="K407" t="n">
-        <v>-36.84210526315789</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L407" t="n">
         <v>313</v>
@@ -21232,7 +21232,7 @@
         <v>347</v>
       </c>
       <c r="K408" t="n">
-        <v>-38.46153846153847</v>
+        <v>-30</v>
       </c>
       <c r="L408" t="n">
         <v>312.4</v>
@@ -21283,7 +21283,7 @@
         <v>349</v>
       </c>
       <c r="K409" t="n">
-        <v>-26.31578947368421</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L409" t="n">
         <v>312</v>
@@ -21334,7 +21334,7 @@
         <v>351</v>
       </c>
       <c r="K410" t="n">
-        <v>-26.31578947368421</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L410" t="n">
         <v>311.3</v>
@@ -21385,7 +21385,7 @@
         <v>352</v>
       </c>
       <c r="K411" t="n">
-        <v>-35.13513513513514</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L411" t="n">
         <v>310.5</v>
@@ -21436,7 +21436,7 @@
         <v>354</v>
       </c>
       <c r="K412" t="n">
-        <v>-45.94594594594595</v>
+        <v>-44</v>
       </c>
       <c r="L412" t="n">
         <v>309.4</v>
@@ -21487,7 +21487,7 @@
         <v>354</v>
       </c>
       <c r="K413" t="n">
-        <v>-45.94594594594595</v>
+        <v>-39.1304347826087</v>
       </c>
       <c r="L413" t="n">
         <v>308.3</v>
@@ -21538,7 +21538,7 @@
         <v>354</v>
       </c>
       <c r="K414" t="n">
-        <v>-37.5</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L414" t="n">
         <v>307.4</v>
@@ -21640,7 +21640,7 @@
         <v>358</v>
       </c>
       <c r="K416" t="n">
-        <v>-29.03225806451613</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L416" t="n">
         <v>306.9</v>
@@ -21691,7 +21691,7 @@
         <v>359</v>
       </c>
       <c r="K417" t="n">
-        <v>-25</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L417" t="n">
         <v>306.6</v>
@@ -21742,7 +21742,7 @@
         <v>360</v>
       </c>
       <c r="K418" t="n">
-        <v>-27.27272727272727</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L418" t="n">
         <v>306.3</v>
@@ -21793,7 +21793,7 @@
         <v>360</v>
       </c>
       <c r="K419" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L419" t="n">
         <v>305.8</v>
@@ -21844,7 +21844,7 @@
         <v>360</v>
       </c>
       <c r="K420" t="n">
-        <v>-31.25</v>
+        <v>-25</v>
       </c>
       <c r="L420" t="n">
         <v>305.5</v>
@@ -21895,7 +21895,7 @@
         <v>360</v>
       </c>
       <c r="K421" t="n">
-        <v>-31.25</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>305.3</v>
@@ -21946,7 +21946,7 @@
         <v>362</v>
       </c>
       <c r="K422" t="n">
-        <v>-27.27272727272727</v>
+        <v>25</v>
       </c>
       <c r="L422" t="n">
         <v>305.5</v>
@@ -21997,7 +21997,7 @@
         <v>363</v>
       </c>
       <c r="K423" t="n">
-        <v>-29.41176470588236</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L423" t="n">
         <v>305.6</v>
@@ -22048,7 +22048,7 @@
         <v>364</v>
       </c>
       <c r="K424" t="n">
-        <v>-21.21212121212121</v>
+        <v>0</v>
       </c>
       <c r="L424" t="n">
         <v>305.8</v>
@@ -22099,7 +22099,7 @@
         <v>364</v>
       </c>
       <c r="K425" t="n">
-        <v>4</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>305.8</v>
@@ -22150,7 +22150,7 @@
         <v>366</v>
       </c>
       <c r="K426" t="n">
-        <v>-9.090909090909092</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L426" t="n">
         <v>306.2</v>
@@ -22201,7 +22201,7 @@
         <v>367</v>
       </c>
       <c r="K427" t="n">
-        <v>4.761904761904762</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L427" t="n">
         <v>306.6</v>
@@ -22252,7 +22252,7 @@
         <v>367</v>
       </c>
       <c r="K428" t="n">
-        <v>10</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L428" t="n">
         <v>307.1</v>
@@ -22303,7 +22303,7 @@
         <v>367</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L429" t="n">
         <v>307.6</v>
@@ -22354,7 +22354,7 @@
         <v>369</v>
       </c>
       <c r="K430" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L430" t="n">
         <v>307.9</v>
@@ -22405,7 +22405,7 @@
         <v>370</v>
       </c>
       <c r="K431" t="n">
-        <v>11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L431" t="n">
         <v>308.3</v>
@@ -22456,7 +22456,7 @@
         <v>370</v>
       </c>
       <c r="K432" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L432" t="n">
         <v>308.5</v>
@@ -22507,7 +22507,7 @@
         <v>373</v>
       </c>
       <c r="K433" t="n">
-        <v>36.84210526315789</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L433" t="n">
         <v>309.1</v>
@@ -22558,7 +22558,7 @@
         <v>376</v>
       </c>
       <c r="K434" t="n">
-        <v>45.45454545454545</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L434" t="n">
         <v>309.9</v>
@@ -22609,7 +22609,7 @@
         <v>378</v>
       </c>
       <c r="K435" t="n">
-        <v>45.45454545454545</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L435" t="n">
         <v>310.9</v>
@@ -22660,7 +22660,7 @@
         <v>379</v>
       </c>
       <c r="K436" t="n">
-        <v>61.90476190476191</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L436" t="n">
         <v>311.8</v>
@@ -22711,7 +22711,7 @@
         <v>379</v>
       </c>
       <c r="K437" t="n">
-        <v>60</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L437" t="n">
         <v>312.6</v>
@@ -22762,7 +22762,7 @@
         <v>382</v>
       </c>
       <c r="K438" t="n">
-        <v>45.45454545454545</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L438" t="n">
         <v>313.1</v>
@@ -22813,7 +22813,7 @@
         <v>385</v>
       </c>
       <c r="K439" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L439" t="n">
         <v>313.3</v>
@@ -22864,7 +22864,7 @@
         <v>385</v>
       </c>
       <c r="K440" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L440" t="n">
         <v>313.7</v>
@@ -22915,7 +22915,7 @@
         <v>386</v>
       </c>
       <c r="K441" t="n">
-        <v>30.76923076923077</v>
+        <v>25</v>
       </c>
       <c r="L441" t="n">
         <v>314.1</v>
@@ -22966,7 +22966,7 @@
         <v>388</v>
       </c>
       <c r="K442" t="n">
-        <v>15.38461538461539</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L442" t="n">
         <v>314.3</v>
@@ -23017,7 +23017,7 @@
         <v>392</v>
       </c>
       <c r="K443" t="n">
-        <v>31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>314.6</v>
@@ -23068,7 +23068,7 @@
         <v>393</v>
       </c>
       <c r="K444" t="n">
-        <v>24.13793103448276</v>
+        <v>-20</v>
       </c>
       <c r="L444" t="n">
         <v>314.5</v>
@@ -23119,7 +23119,7 @@
         <v>393</v>
       </c>
       <c r="K445" t="n">
-        <v>24.13793103448276</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L445" t="n">
         <v>314.2</v>
@@ -23170,7 +23170,7 @@
         <v>394</v>
       </c>
       <c r="K446" t="n">
-        <v>14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L446" t="n">
         <v>313.7</v>
@@ -23221,7 +23221,7 @@
         <v>395</v>
       </c>
       <c r="K447" t="n">
-        <v>14.28571428571428</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L447" t="n">
         <v>313.3</v>
@@ -23272,7 +23272,7 @@
         <v>395</v>
       </c>
       <c r="K448" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L448" t="n">
         <v>313.2</v>
@@ -23323,7 +23323,7 @@
         <v>397</v>
       </c>
       <c r="K449" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>313.2</v>
@@ -23374,7 +23374,7 @@
         <v>398</v>
       </c>
       <c r="K450" t="n">
-        <v>17.24137931034483</v>
+        <v>0</v>
       </c>
       <c r="L450" t="n">
         <v>313.3</v>
@@ -23425,7 +23425,7 @@
         <v>398</v>
       </c>
       <c r="K451" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L451" t="n">
         <v>313.3</v>
@@ -23476,7 +23476,7 @@
         <v>399</v>
       </c>
       <c r="K452" t="n">
-        <v>17.24137931034483</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L452" t="n">
         <v>313.6</v>
@@ -23527,7 +23527,7 @@
         <v>401</v>
       </c>
       <c r="K453" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L453" t="n">
         <v>313.7</v>
@@ -23578,7 +23578,7 @@
         <v>401</v>
       </c>
       <c r="K454" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="L454" t="n">
         <v>313.9</v>
@@ -23629,7 +23629,7 @@
         <v>402</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L455" t="n">
         <v>314.2</v>
@@ -23680,7 +23680,7 @@
         <v>402</v>
       </c>
       <c r="K456" t="n">
-        <v>-4.347826086956522</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L456" t="n">
         <v>314.6</v>
@@ -23731,7 +23731,7 @@
         <v>403</v>
       </c>
       <c r="K457" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L457" t="n">
         <v>315</v>
@@ -23782,7 +23782,7 @@
         <v>403</v>
       </c>
       <c r="K458" t="n">
-        <v>14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L458" t="n">
         <v>315.4</v>
@@ -23833,7 +23833,7 @@
         <v>404</v>
       </c>
       <c r="K459" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L459" t="n">
         <v>316.1</v>
@@ -23884,7 +23884,7 @@
         <v>405</v>
       </c>
       <c r="K460" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L460" t="n">
         <v>316.8</v>
@@ -23935,7 +23935,7 @@
         <v>405</v>
       </c>
       <c r="K461" t="n">
-        <v>36.84210526315789</v>
+        <v>100</v>
       </c>
       <c r="L461" t="n">
         <v>317.5</v>
@@ -23986,7 +23986,7 @@
         <v>405</v>
       </c>
       <c r="K462" t="n">
-        <v>52.94117647058824</v>
+        <v>100</v>
       </c>
       <c r="L462" t="n">
         <v>318.1</v>

--- a/BackTest/2019-10-10 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-10 BackTest ZRX.xlsx
@@ -696,13 +696,17 @@
         <v>304.9833333333333</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>297</v>
+      </c>
+      <c r="K9" t="n">
+        <v>297</v>
+      </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
@@ -731,14 +735,22 @@
         <v>304.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>301</v>
+      </c>
+      <c r="K10" t="n">
+        <v>297</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -766,14 +778,22 @@
         <v>304.85</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>303</v>
+      </c>
+      <c r="K11" t="n">
+        <v>297</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -801,13 +821,17 @@
         <v>304.7666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>303</v>
+      </c>
+      <c r="K12" t="n">
+        <v>303</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
@@ -836,14 +860,22 @@
         <v>304.6833333333333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>303</v>
+      </c>
+      <c r="K13" t="n">
+        <v>303</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -871,14 +903,22 @@
         <v>304.6166666666667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>303</v>
+      </c>
+      <c r="K14" t="n">
+        <v>303</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -6261,17 +6301,13 @@
         <v>300.0833333333333</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>294</v>
-      </c>
-      <c r="K168" t="n">
-        <v>294</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
@@ -6300,319 +6336,275 @@
         <v>299.9166666666667</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>295</v>
+      </c>
+      <c r="C170" t="n">
+        <v>295</v>
+      </c>
+      <c r="D170" t="n">
+        <v>295</v>
+      </c>
+      <c r="E170" t="n">
+        <v>295</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G170" t="n">
+        <v>299.7833333333334</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>294</v>
       </c>
-      <c r="K169" t="n">
+      <c r="C171" t="n">
         <v>294</v>
       </c>
-      <c r="L169" t="inlineStr">
+      <c r="D171" t="n">
+        <v>294</v>
+      </c>
+      <c r="E171" t="n">
+        <v>294</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7003.0346</v>
+      </c>
+      <c r="G171" t="n">
+        <v>299.65</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>293</v>
+      </c>
+      <c r="C172" t="n">
+        <v>294</v>
+      </c>
+      <c r="D172" t="n">
+        <v>294</v>
+      </c>
+      <c r="E172" t="n">
+        <v>293</v>
+      </c>
+      <c r="F172" t="n">
+        <v>811.0478000000001</v>
+      </c>
+      <c r="G172" t="n">
+        <v>299.5166666666667</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>294</v>
+      </c>
+      <c r="C173" t="n">
+        <v>294</v>
+      </c>
+      <c r="D173" t="n">
+        <v>294</v>
+      </c>
+      <c r="E173" t="n">
+        <v>294</v>
+      </c>
+      <c r="F173" t="n">
+        <v>113.9592</v>
+      </c>
+      <c r="G173" t="n">
+        <v>299.3833333333333</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>293</v>
+      </c>
+      <c r="C174" t="n">
+        <v>293</v>
+      </c>
+      <c r="D174" t="n">
+        <v>293</v>
+      </c>
+      <c r="E174" t="n">
+        <v>293</v>
+      </c>
+      <c r="F174" t="n">
+        <v>3516.0766</v>
+      </c>
+      <c r="G174" t="n">
+        <v>299.2333333333333</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>294</v>
+      </c>
+      <c r="K174" t="n">
+        <v>294</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>294</v>
+      </c>
+      <c r="C175" t="n">
+        <v>294</v>
+      </c>
+      <c r="D175" t="n">
+        <v>294</v>
+      </c>
+      <c r="E175" t="n">
+        <v>294</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1514</v>
+      </c>
+      <c r="G175" t="n">
+        <v>299.1166666666667</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>294</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>295</v>
-      </c>
-      <c r="C170" t="n">
-        <v>295</v>
-      </c>
-      <c r="D170" t="n">
-        <v>295</v>
-      </c>
-      <c r="E170" t="n">
-        <v>295</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1280</v>
-      </c>
-      <c r="G170" t="n">
-        <v>299.7833333333334</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>295</v>
-      </c>
-      <c r="K170" t="n">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
         <v>294</v>
       </c>
-      <c r="L170" t="inlineStr">
+      <c r="C176" t="n">
+        <v>294</v>
+      </c>
+      <c r="D176" t="n">
+        <v>294</v>
+      </c>
+      <c r="E176" t="n">
+        <v>294</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2647.4485</v>
+      </c>
+      <c r="G176" t="n">
+        <v>298.9833333333333</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>294</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>294</v>
-      </c>
-      <c r="C171" t="n">
-        <v>294</v>
-      </c>
-      <c r="D171" t="n">
-        <v>294</v>
-      </c>
-      <c r="E171" t="n">
-        <v>294</v>
-      </c>
-      <c r="F171" t="n">
-        <v>7003.0346</v>
-      </c>
-      <c r="G171" t="n">
-        <v>299.65</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="n">
-        <v>294</v>
-      </c>
-      <c r="K171" t="n">
-        <v>294</v>
-      </c>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>293</v>
-      </c>
-      <c r="C172" t="n">
-        <v>294</v>
-      </c>
-      <c r="D172" t="n">
-        <v>294</v>
-      </c>
-      <c r="E172" t="n">
-        <v>293</v>
-      </c>
-      <c r="F172" t="n">
-        <v>811.0478000000001</v>
-      </c>
-      <c r="G172" t="n">
-        <v>299.5166666666667</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="n">
-        <v>293</v>
-      </c>
-      <c r="K172" t="n">
-        <v>294</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>294</v>
-      </c>
-      <c r="C173" t="n">
-        <v>294</v>
-      </c>
-      <c r="D173" t="n">
-        <v>294</v>
-      </c>
-      <c r="E173" t="n">
-        <v>294</v>
-      </c>
-      <c r="F173" t="n">
-        <v>113.9592</v>
-      </c>
-      <c r="G173" t="n">
-        <v>299.3833333333333</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="n">
-        <v>294</v>
-      </c>
-      <c r="K173" t="n">
-        <v>294</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>293</v>
-      </c>
-      <c r="C174" t="n">
-        <v>293</v>
-      </c>
-      <c r="D174" t="n">
-        <v>293</v>
-      </c>
-      <c r="E174" t="n">
-        <v>293</v>
-      </c>
-      <c r="F174" t="n">
-        <v>3516.0766</v>
-      </c>
-      <c r="G174" t="n">
-        <v>299.2333333333333</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>293</v>
-      </c>
-      <c r="K174" t="n">
-        <v>294</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>294</v>
-      </c>
-      <c r="C175" t="n">
-        <v>294</v>
-      </c>
-      <c r="D175" t="n">
-        <v>294</v>
-      </c>
-      <c r="E175" t="n">
-        <v>294</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1514</v>
-      </c>
-      <c r="G175" t="n">
-        <v>299.1166666666667</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="n">
-        <v>294</v>
-      </c>
-      <c r="K175" t="n">
-        <v>294</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>294</v>
-      </c>
-      <c r="C176" t="n">
-        <v>294</v>
-      </c>
-      <c r="D176" t="n">
-        <v>294</v>
-      </c>
-      <c r="E176" t="n">
-        <v>294</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2647.4485</v>
-      </c>
-      <c r="G176" t="n">
-        <v>298.9833333333333</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="n">
-        <v>294</v>
-      </c>
-      <c r="K176" t="n">
-        <v>294</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6640,22 +6632,14 @@
         <v>298.8666666666667</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>294</v>
-      </c>
-      <c r="K177" t="n">
-        <v>294</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6683,22 +6667,14 @@
         <v>298.7666666666667</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>295</v>
-      </c>
-      <c r="K178" t="n">
-        <v>294</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6726,22 +6702,14 @@
         <v>298.6666666666667</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>295</v>
-      </c>
-      <c r="K179" t="n">
-        <v>294</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6769,22 +6737,14 @@
         <v>298.5333333333334</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>295</v>
-      </c>
-      <c r="K180" t="n">
-        <v>294</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6812,22 +6772,14 @@
         <v>298.4333333333333</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>294</v>
-      </c>
-      <c r="K181" t="n">
-        <v>294</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6855,22 +6807,14 @@
         <v>298.3166666666667</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>295</v>
-      </c>
-      <c r="K182" t="n">
-        <v>294</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6898,22 +6842,14 @@
         <v>298.2166666666666</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>296</v>
-      </c>
-      <c r="K183" t="n">
-        <v>294</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6941,22 +6877,14 @@
         <v>298.1333333333333</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>297</v>
-      </c>
-      <c r="K184" t="n">
-        <v>294</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6984,22 +6912,14 @@
         <v>298.05</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>297</v>
-      </c>
-      <c r="K185" t="n">
-        <v>294</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7027,22 +6947,14 @@
         <v>297.95</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>296</v>
-      </c>
-      <c r="K186" t="n">
-        <v>294</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7070,22 +6982,14 @@
         <v>297.85</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>296</v>
-      </c>
-      <c r="K187" t="n">
-        <v>294</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7113,22 +7017,14 @@
         <v>297.7666666666667</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>297</v>
-      </c>
-      <c r="K188" t="n">
-        <v>294</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7156,22 +7052,14 @@
         <v>297.6833333333333</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>297</v>
-      </c>
-      <c r="K189" t="n">
-        <v>294</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7199,22 +7087,14 @@
         <v>297.6166666666667</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>297</v>
-      </c>
-      <c r="K190" t="n">
-        <v>294</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7242,22 +7122,14 @@
         <v>297.55</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>297</v>
-      </c>
-      <c r="K191" t="n">
-        <v>294</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7285,22 +7157,14 @@
         <v>297.5</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>298</v>
-      </c>
-      <c r="K192" t="n">
-        <v>294</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7328,22 +7192,14 @@
         <v>297.45</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>298</v>
-      </c>
-      <c r="K193" t="n">
-        <v>294</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7371,22 +7227,14 @@
         <v>297.3666666666667</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>296</v>
-      </c>
-      <c r="K194" t="n">
-        <v>294</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7414,22 +7262,14 @@
         <v>297.3333333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>297</v>
-      </c>
-      <c r="K195" t="n">
-        <v>294</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7457,22 +7297,14 @@
         <v>297.3666666666667</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>298</v>
-      </c>
-      <c r="K196" t="n">
-        <v>294</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7500,22 +7332,14 @@
         <v>297.3333333333333</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>300</v>
-      </c>
-      <c r="K197" t="n">
-        <v>294</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7543,22 +7367,14 @@
         <v>297.3166666666667</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>299</v>
-      </c>
-      <c r="K198" t="n">
-        <v>294</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7586,22 +7402,14 @@
         <v>297.35</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>302</v>
-      </c>
-      <c r="K199" t="n">
-        <v>294</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7629,22 +7437,14 @@
         <v>297.3666666666667</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>301</v>
-      </c>
-      <c r="K200" t="n">
-        <v>294</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7678,14 +7478,8 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>294</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7719,14 +7513,8 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>294</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7760,14 +7548,8 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>294</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7801,14 +7583,8 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>294</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7842,14 +7618,8 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>294</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7883,14 +7653,8 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>294</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7924,14 +7688,8 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>294</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7965,14 +7723,8 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>294</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8006,14 +7758,8 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>294</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8047,14 +7793,8 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>294</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8088,14 +7828,8 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>294</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8129,14 +7863,8 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>294</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8170,14 +7898,8 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>294</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8211,14 +7933,8 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>294</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8252,14 +7968,8 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>294</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8293,14 +8003,8 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>294</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8334,14 +8038,8 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>294</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8375,14 +8073,8 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>294</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8416,14 +8108,8 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>294</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>294</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8498,14 +8178,8 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>294</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8539,14 +8213,8 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>294</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8580,14 +8248,8 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>294</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8621,14 +8283,8 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>294</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8662,14 +8318,8 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>294</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8703,14 +8353,8 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>294</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8744,14 +8388,8 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>294</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8785,14 +8423,8 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>294</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8826,14 +8458,8 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>294</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8867,14 +8493,8 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>294</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8908,14 +8528,8 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>294</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8949,14 +8563,8 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>294</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8990,14 +8598,8 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>294</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9031,14 +8633,8 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>294</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9072,14 +8668,8 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>294</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9113,14 +8703,8 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>294</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9154,14 +8738,8 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>294</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9195,14 +8773,8 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>294</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9236,14 +8808,8 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>294</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9277,14 +8843,8 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>294</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9318,14 +8878,8 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>294</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9359,14 +8913,8 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>294</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +8948,8 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>294</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9441,14 +8983,8 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>294</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9482,14 +9018,8 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>294</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9523,14 +9053,8 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>294</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9564,14 +9088,8 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>294</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9605,14 +9123,8 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>294</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9646,14 +9158,8 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>294</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9687,14 +9193,8 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>294</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9728,14 +9228,8 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>294</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9769,14 +9263,8 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>294</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9810,14 +9298,8 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>294</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9851,14 +9333,8 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>294</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9892,14 +9368,8 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>294</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9933,14 +9403,8 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>294</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9974,14 +9438,8 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>294</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10015,14 +9473,8 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>294</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10056,14 +9508,8 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>294</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10097,14 +9543,8 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>294</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10138,14 +9578,8 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>294</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10179,14 +9613,8 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>294</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10220,14 +9648,8 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>294</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10261,14 +9683,8 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>294</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10302,14 +9718,8 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>294</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10343,14 +9753,8 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>294</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10384,14 +9788,8 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>294</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10425,14 +9823,8 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>294</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10466,14 +9858,8 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>294</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10507,14 +9893,8 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>294</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -10548,14 +9928,8 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>294</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +9963,8 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>294</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -10630,14 +9998,8 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>294</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -10671,14 +10033,8 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>294</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10712,14 +10068,8 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>294</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10753,14 +10103,8 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>294</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10794,14 +10138,8 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>294</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10835,14 +10173,8 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>294</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10876,14 +10208,8 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>294</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10917,14 +10243,8 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>294</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10958,14 +10278,8 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>294</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10999,14 +10313,8 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>294</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11040,14 +10348,8 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>294</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11081,14 +10383,8 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>294</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11122,14 +10418,8 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>294</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11163,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>294</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11204,14 +10488,8 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>294</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11245,14 +10523,8 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>294</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11286,14 +10558,8 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>294</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11324,19 +10590,13 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>294</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
-        <v>1.093639455782313</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -11365,7 +10625,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
@@ -11470,7 +10730,7 @@
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
@@ -11505,7 +10765,7 @@
         <v>0</v>
       </c>
       <c r="I295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
@@ -11540,7 +10800,7 @@
         <v>0</v>
       </c>
       <c r="I296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
@@ -11575,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="I297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
@@ -11610,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
@@ -11785,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
@@ -11820,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
@@ -11855,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
@@ -11960,7 +11220,7 @@
         <v>0</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
@@ -11995,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
@@ -12030,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
@@ -12065,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
@@ -12100,7 +11360,7 @@
         <v>0</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>

--- a/BackTest/2019-10-10 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-10 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>39386.322</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>39506.322</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>39506.322</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>39506.322</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>47534.0133</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-148867.2399</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-149367.2399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-147690.5807</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-147746.0439</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-155478.9829</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-146242.8995</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-189500.1239</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-189500.1239</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-183084.2786</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-183161.8474</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-183161.8474</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-183161.8474</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-183161.8474</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-183161.8474</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-183300.551</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-184410.8798</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-183975.8798</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-183975.8798</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-183797.9516</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-172596.9864</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-172596.9864</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-172596.9864</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-172596.9864</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-172668.918</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-172578.4597</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-172591.0233</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-172591.0233</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-173199.2685</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-173370.5845</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-173370.5845</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-173403.3445</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-168486.0136</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-168486.0136</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-168486.0136</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-168486.0136</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-168554.6708</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-168554.6708</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-168758.6708</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-168427.7304196079</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-168454.1119196079</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-193153.1691196079</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-193153.1691196079</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-197202.5777196079</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-197202.5777196079</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-197202.5777196079</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-197527.7695196079</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-198922.7695196079</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-206383.8953196079</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-206202.9749196079</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-206046.4622196079</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-206046.4622196079</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-206046.4622196079</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-206046.4622196079</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-205706.9621196079</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-205706.9621196079</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-205706.9621196079</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-205706.9621196079</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-205706.9621196079</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-205706.9621196079</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-204381.9230196079</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-204755.7307196079</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-204755.7307196079</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-204755.7307196079</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-205354.5826196079</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-203572.1826196079</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-203772.1826196079</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-203722.1826196079</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-203722.1826196079</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-203924.2290196079</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-203924.2290196079</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-203924.2290196079</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-203924.2290196079</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-199596.2553196079</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-199596.2553196079</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-199596.2553196079</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-199718.7924196079</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-199718.7924196079</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-199718.7924196079</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-207893.7541196079</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-211514.9773196079</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-207629.7166196078</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-214239.4163196078</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-214239.4163196078</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-214288.8467196079</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-201696.9549196079</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-201696.9549196079</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-200486.7487196079</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-209824.3269196078</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-209151.7773196078</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-210436.0523196078</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-210293.8866196078</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-246738.5645196078</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-246604.5138196078</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-246401.1127196079</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-246401.1127196079</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-246401.1127196079</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-246401.1127196079</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-246401.1127196079</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-246401.1127196079</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-246418.0702196078</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-248836.1188196079</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-248260.0519196079</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-248260.0519196079</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-248260.0519196079</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-248260.0519196079</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-248260.0519196079</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-248222.1073196079</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-248222.1073196079</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-248379.1073196079</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-248379.1073196079</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-248379.1073196079</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-248371.7981090815</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-249295.1298090816</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-251787.3750090816</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-251687.3750090816</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-254941.6252090816</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-254941.6252090816</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-254781.5947090816</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-254781.5947090816</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-250323.1747090816</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-250323.1747090816</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-250423.1747090816</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-250423.1747090816</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-252296.6354090816</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-251997.8494090816</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-251997.8494090816</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-251997.8494090816</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-250788.3955090816</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-251182.8522090816</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-249682.8522090816</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-249682.8522090816</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-243596.8630090816</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-244078.7620090816</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-243078.7620090816</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-243078.7620090816</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-243078.7620090816</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-243078.7620090816</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-243078.7620090816</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-243214.4802090816</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-243885.1948090816</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-244479.4617090816</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-244479.4617090816</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-244479.4617090816</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-244479.4617090816</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-244916.3068090816</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-244562.3068090816</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-244579.2643090816</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-244579.2643090816</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-244579.2643090816</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-241278.9343090816</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-1160281.968809081</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-1160281.968809081</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-1160281.968809081</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-1160281.968809081</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -8305,17 +8305,11 @@
         <v>-2337406.856009081</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8344,17 +8338,11 @@
         <v>-2337864.572109081</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8383,17 +8371,11 @@
         <v>-2333819.812009081</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8422,17 +8404,11 @@
         <v>-2332328.074691572</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8461,17 +8437,11 @@
         <v>-2332328.074691572</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8500,17 +8470,11 @@
         <v>-2332468.671291572</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8539,17 +8503,11 @@
         <v>-2332468.671291572</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8578,17 +8536,11 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8617,17 +8569,11 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8656,17 +8602,11 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8695,17 +8635,11 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8734,17 +8668,11 @@
         <v>-2331220.715591572</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>297</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8773,17 +8701,11 @@
         <v>-2331220.715591572</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8812,17 +8734,11 @@
         <v>-2344999.391891572</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8851,17 +8767,11 @@
         <v>-2344099.537991572</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8890,17 +8800,11 @@
         <v>-2342069.313923356</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8933,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8966,17 +8866,11 @@
         <v>-2354230.394223355</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
-      </c>
-      <c r="I257" t="n">
-        <v>298</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9005,17 +8899,11 @@
         <v>-2354220.486938587</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>299</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9044,17 +8932,15 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>302</v>
       </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="n">
+        <v>302</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9083,15 +8969,17 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>301</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>302</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L260" t="n">
@@ -9122,15 +9010,17 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>301</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>302</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L261" t="n">
@@ -9161,17 +9051,15 @@
         <v>-2354888.608438587</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>301</v>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="n">
+        <v>301</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9200,15 +9088,17 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>300</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>301</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L263" t="n">
@@ -9239,15 +9129,17 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>301</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>301</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L264" t="n">
@@ -9278,15 +9170,15 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>301</v>
+      </c>
+      <c r="J265" t="n">
+        <v>301</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9315,13 +9207,17 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>301</v>
+      </c>
+      <c r="J266" t="n">
+        <v>301</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -9355,10 +9251,12 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>301</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9389,10 +9287,14 @@
         <v>-2342160.306838587</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>302</v>
+      </c>
+      <c r="J268" t="n">
+        <v>301</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9429,7 +9331,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>301</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,12 +9367,14 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>300</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>301</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9502,12 +9408,14 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>301</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>301</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9541,12 +9449,14 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>301</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>301</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9580,12 +9490,14 @@
         <v>-2342798.111738587</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>301</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>301</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,12 +9531,14 @@
         <v>-2342632.896433637</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>302</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>301</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,12 +9572,14 @@
         <v>-2342632.896433637</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>303</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>301</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9697,12 +9613,14 @@
         <v>-2344263.084133637</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>303</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>301</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9736,12 +9654,14 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>300</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>301</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,12 +9695,14 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>302</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>301</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9814,12 +9736,14 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>302</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>301</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9853,12 +9777,14 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>302</v>
       </c>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>301</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9892,12 +9818,14 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>303</v>
       </c>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>301</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9931,12 +9859,14 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>303</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>301</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,12 +9900,14 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>303</v>
       </c>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>301</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10009,12 +9941,14 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>303</v>
       </c>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>301</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,12 +9982,14 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>303</v>
       </c>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>301</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10087,12 +10023,14 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>301</v>
       </c>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>301</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10126,12 +10064,14 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>301</v>
       </c>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>301</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10165,12 +10105,14 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>300</v>
       </c>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>301</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,12 +10146,14 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>300</v>
       </c>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>301</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10243,12 +10187,14 @@
         <v>-2325774.577058802</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>300</v>
       </c>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>301</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,12 +10228,14 @@
         <v>-2326026.577058802</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>302</v>
       </c>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>301</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10321,12 +10269,14 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>301</v>
       </c>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>301</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10360,12 +10310,14 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>302</v>
       </c>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>301</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,12 +10351,14 @@
         <v>-2321967.135558803</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>302</v>
       </c>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>301</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10438,10 +10392,14 @@
         <v>-2322015.848958802</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>303</v>
+      </c>
+      <c r="J295" t="n">
+        <v>301</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10475,12 +10433,14 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>301</v>
       </c>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>301</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10514,12 +10474,14 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>302</v>
       </c>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>301</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10553,12 +10515,14 @@
         <v>-2322253.948258802</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>302</v>
       </c>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>301</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10592,12 +10556,14 @@
         <v>-2322130.826658802</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>301</v>
       </c>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>301</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10631,12 +10597,14 @@
         <v>-2317816.545058802</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>303</v>
       </c>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>301</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10670,12 +10638,14 @@
         <v>-2317889.167458802</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>304</v>
       </c>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>301</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10709,10 +10679,14 @@
         <v>-2317889.167458802</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>302</v>
+      </c>
+      <c r="J302" t="n">
+        <v>301</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10746,10 +10720,14 @@
         <v>-2317837.988258802</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>302</v>
+      </c>
+      <c r="J303" t="n">
+        <v>301</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10783,10 +10761,14 @@
         <v>-2318540.253458802</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>303</v>
+      </c>
+      <c r="J304" t="n">
+        <v>301</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10823,7 +10805,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>301</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10857,10 +10841,14 @@
         <v>-2317101.995058802</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>302</v>
+      </c>
+      <c r="J306" t="n">
+        <v>301</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10894,10 +10882,14 @@
         <v>-2317101.995058802</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>303</v>
+      </c>
+      <c r="J307" t="n">
+        <v>301</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10934,7 +10926,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>301</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10971,7 +10965,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>301</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11008,7 +11004,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>301</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11045,7 +11043,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>301</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11082,7 +11082,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>301</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11119,7 +11121,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>301</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11156,7 +11160,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>301</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11193,7 +11199,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>301</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11230,7 +11238,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>301</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11264,12 +11274,12 @@
         <v>-2297281.228258802</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="n">
-        <v>307</v>
-      </c>
-      <c r="J317" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>301</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11303,12 +11313,12 @@
         <v>-2293970.841658802</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>308</v>
-      </c>
-      <c r="J318" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>301</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11345,7 +11355,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>301</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11382,7 +11394,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>301</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11419,7 +11433,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>301</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11456,7 +11472,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>301</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11493,7 +11511,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>301</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11530,7 +11550,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>301</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11567,7 +11589,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>301</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11604,7 +11628,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>301</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11641,7 +11667,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>301</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11678,7 +11706,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>301</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11715,7 +11745,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>301</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11752,7 +11784,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>301</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11789,7 +11823,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>301</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11826,7 +11862,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>301</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11860,12 +11898,12 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>314</v>
-      </c>
-      <c r="J333" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>301</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11902,7 +11940,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>301</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11939,7 +11979,9 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>301</v>
+      </c>
       <c r="K335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11976,7 +12018,9 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>301</v>
+      </c>
       <c r="K336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12013,7 +12057,9 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>301</v>
+      </c>
       <c r="K337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12050,7 +12096,9 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>301</v>
+      </c>
       <c r="K338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12087,7 +12135,9 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>301</v>
+      </c>
       <c r="K339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12124,7 +12174,9 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>301</v>
+      </c>
       <c r="K340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12161,7 +12213,9 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>301</v>
+      </c>
       <c r="K341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12198,7 +12252,9 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>301</v>
+      </c>
       <c r="K342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12235,7 +12291,9 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>301</v>
+      </c>
       <c r="K343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12269,16 +12327,20 @@
         <v>-2254777.878858803</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>301</v>
+      </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L344" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
       <c r="M344" t="inlineStr"/>
     </row>
     <row r="345">
@@ -12304,11 +12366,17 @@
         <v>-2254777.878858803</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>301</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12337,11 +12405,17 @@
         <v>-2254777.878858803</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>301</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12370,11 +12444,17 @@
         <v>-2251588.900458803</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>301</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12403,11 +12483,17 @@
         <v>-2249588.900458803</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>301</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12436,11 +12522,19 @@
         <v>-2246666.973758803</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I349" t="n">
+        <v>322</v>
+      </c>
+      <c r="J349" t="n">
+        <v>301</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12469,11 +12563,17 @@
         <v>-2246666.973758803</v>
       </c>
       <c r="H350" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>301</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12502,11 +12602,17 @@
         <v>-2246666.973758803</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>301</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12535,11 +12641,19 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I352" t="n">
+        <v>323</v>
+      </c>
+      <c r="J352" t="n">
+        <v>301</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12568,11 +12682,17 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>301</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12601,11 +12721,19 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>322</v>
+      </c>
+      <c r="J354" t="n">
+        <v>301</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12634,11 +12762,19 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>322</v>
+      </c>
+      <c r="J355" t="n">
+        <v>301</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12667,11 +12803,19 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>322</v>
+      </c>
+      <c r="J356" t="n">
+        <v>301</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12700,11 +12844,19 @@
         <v>-2249034.832458802</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>322</v>
+      </c>
+      <c r="J357" t="n">
+        <v>301</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12733,11 +12885,19 @@
         <v>-2249034.832458802</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>323</v>
+      </c>
+      <c r="J358" t="n">
+        <v>301</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12766,11 +12926,19 @@
         <v>-2228572.063558802</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>323</v>
+      </c>
+      <c r="J359" t="n">
+        <v>301</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12799,11 +12967,19 @@
         <v>-2228994.583958802</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>324</v>
+      </c>
+      <c r="J360" t="n">
+        <v>301</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12832,11 +13008,19 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>323</v>
+      </c>
+      <c r="J361" t="n">
+        <v>301</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12865,11 +13049,19 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>324</v>
+      </c>
+      <c r="J362" t="n">
+        <v>301</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12898,11 +13090,19 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>324</v>
+      </c>
+      <c r="J363" t="n">
+        <v>301</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12931,11 +13131,19 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>324</v>
+      </c>
+      <c r="J364" t="n">
+        <v>301</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12964,11 +13172,19 @@
         <v>-2215047.316958802</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>324</v>
+      </c>
+      <c r="J365" t="n">
+        <v>301</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12997,11 +13213,19 @@
         <v>-2207185.644458802</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>328</v>
+      </c>
+      <c r="J366" t="n">
+        <v>301</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13030,11 +13254,17 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>301</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13063,11 +13293,17 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>301</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13096,11 +13332,17 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>301</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13129,11 +13371,17 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>301</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13162,11 +13410,17 @@
         <v>-2205592.686058802</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>301</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13195,11 +13449,17 @@
         <v>-2224218.687058802</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>301</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13228,11 +13488,17 @@
         <v>-2225158.447058802</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>301</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13261,11 +13527,17 @@
         <v>-2225209.807058802</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>301</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13297,8 +13569,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>301</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13330,8 +13608,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>301</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13363,8 +13647,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>301</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13396,8 +13686,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>301</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13429,8 +13725,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>301</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13462,8 +13764,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>301</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13495,8 +13803,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>301</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13528,8 +13842,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>301</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13561,8 +13881,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>301</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13594,8 +13920,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>301</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13627,8 +13959,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>301</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13660,8 +13998,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>301</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13693,8 +14037,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>301</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13726,8 +14076,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>301</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13759,8 +14115,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>301</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13792,8 +14154,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>301</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13825,8 +14193,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>301</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13858,8 +14232,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>301</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13891,8 +14271,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>301</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13924,8 +14310,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>301</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13957,8 +14349,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>301</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13990,8 +14388,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>301</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14023,8 +14427,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>301</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14056,8 +14466,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>301</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14089,8 +14505,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>301</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14122,8 +14544,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>301</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14155,8 +14583,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>301</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14188,8 +14622,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>301</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14221,8 +14661,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>301</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14254,8 +14700,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>301</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14287,8 +14739,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>301</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14320,8 +14778,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>301</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14353,8 +14817,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>301</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14386,8 +14856,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>301</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14419,8 +14895,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>301</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14452,8 +14934,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>301</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14485,8 +14973,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>301</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14515,11 +15009,19 @@
         <v>-2235822.958758802</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>308</v>
+      </c>
+      <c r="J412" t="n">
+        <v>301</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14548,11 +15050,19 @@
         <v>-2236173.881258802</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>307</v>
+      </c>
+      <c r="J413" t="n">
+        <v>301</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14583,9 +15093,17 @@
       <c r="H414" t="n">
         <v>1</v>
       </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="I414" t="n">
+        <v>304</v>
+      </c>
+      <c r="J414" t="n">
+        <v>301</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14616,9 +15134,17 @@
       <c r="H415" t="n">
         <v>1</v>
       </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="I415" t="n">
+        <v>302</v>
+      </c>
+      <c r="J415" t="n">
+        <v>301</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14647,11 +15173,19 @@
         <v>-2233925.993658802</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>305</v>
+      </c>
+      <c r="J416" t="n">
+        <v>301</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14682,9 +15216,17 @@
       <c r="H417" t="n">
         <v>1</v>
       </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="I417" t="n">
+        <v>305</v>
+      </c>
+      <c r="J417" t="n">
+        <v>301</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14715,9 +15257,17 @@
       <c r="H418" t="n">
         <v>1</v>
       </c>
-      <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="I418" t="n">
+        <v>304</v>
+      </c>
+      <c r="J418" t="n">
+        <v>301</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14748,9 +15298,17 @@
       <c r="H419" t="n">
         <v>1</v>
       </c>
-      <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="I419" t="n">
+        <v>306</v>
+      </c>
+      <c r="J419" t="n">
+        <v>301</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14781,9 +15339,17 @@
       <c r="H420" t="n">
         <v>1</v>
       </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="I420" t="n">
+        <v>305</v>
+      </c>
+      <c r="J420" t="n">
+        <v>301</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14812,11 +15378,17 @@
         <v>-2230859.430558802</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>301</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14845,11 +15417,17 @@
         <v>-2230859.430558802</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>301</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14881,8 +15459,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>301</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14914,8 +15498,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>301</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14947,8 +15537,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>301</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14977,11 +15573,17 @@
         <v>-2232174.620458802</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>301</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15013,8 +15615,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>301</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15043,11 +15651,17 @@
         <v>-2264708.756558802</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>301</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15078,9 +15692,17 @@
       <c r="H429" t="n">
         <v>1</v>
       </c>
-      <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="I429" t="n">
+        <v>303</v>
+      </c>
+      <c r="J429" t="n">
+        <v>301</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15112,8 +15734,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>301</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15145,8 +15773,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>301</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15178,8 +15812,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>301</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15211,8 +15851,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>301</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15244,8 +15890,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>301</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15277,8 +15929,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>301</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15310,8 +15968,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>301</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15343,8 +16007,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>301</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15376,8 +16046,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>301</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15409,8 +16085,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>301</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15442,8 +16124,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>301</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15475,8 +16163,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>301</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15508,8 +16202,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>301</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15541,8 +16241,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>301</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15574,8 +16280,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>301</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15607,8 +16319,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>301</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15640,8 +16358,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>301</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15673,8 +16397,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>301</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15706,8 +16436,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>301</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15739,8 +16475,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>301</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15772,8 +16514,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>301</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15805,8 +16553,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>301</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15838,8 +16592,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>301</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15871,8 +16631,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>301</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15904,8 +16670,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>301</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15937,8 +16709,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>301</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15970,8 +16748,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>301</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16003,8 +16787,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>301</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16036,8 +16826,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>301</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16069,8 +16865,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>301</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16102,8 +16904,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>301</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16135,8 +16943,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>301</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16168,8 +16982,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>301</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16201,8 +17021,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>301</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16234,8 +17060,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>301</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16264,11 +17096,19 @@
         <v>-2265586.1571588</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>306</v>
+      </c>
+      <c r="J465" t="n">
+        <v>301</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16297,11 +17137,19 @@
         <v>-2265645.5699588</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>311</v>
+      </c>
+      <c r="J466" t="n">
+        <v>301</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16330,11 +17178,19 @@
         <v>-2265925.5699588</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>309</v>
+      </c>
+      <c r="J467" t="n">
+        <v>301</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16363,11 +17219,19 @@
         <v>-2265902.9568588</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>308</v>
+      </c>
+      <c r="J468" t="n">
+        <v>301</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16396,11 +17260,19 @@
         <v>-2265948.5467588</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>310</v>
+      </c>
+      <c r="J469" t="n">
+        <v>301</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16429,11 +17301,19 @@
         <v>-2266107.3706588</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>308</v>
+      </c>
+      <c r="J470" t="n">
+        <v>301</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16462,11 +17342,19 @@
         <v>-2266912.774858801</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>307</v>
+      </c>
+      <c r="J471" t="n">
+        <v>301</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16495,11 +17383,19 @@
         <v>-2266912.774858801</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>305</v>
+      </c>
+      <c r="J472" t="n">
+        <v>301</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16528,11 +17424,19 @@
         <v>-2266912.774858801</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>305</v>
+      </c>
+      <c r="J473" t="n">
+        <v>301</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16561,11 +17465,19 @@
         <v>-2266894.049458801</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>305</v>
+      </c>
+      <c r="J474" t="n">
+        <v>301</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16594,11 +17506,19 @@
         <v>-2267596.843058801</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>307</v>
+      </c>
+      <c r="J475" t="n">
+        <v>301</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16627,11 +17547,19 @@
         <v>-2267123.326758801</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>305</v>
+      </c>
+      <c r="J476" t="n">
+        <v>301</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16660,11 +17588,19 @@
         <v>-2271294.326658801</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>306</v>
+      </c>
+      <c r="J477" t="n">
+        <v>301</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16693,11 +17629,19 @@
         <v>-2271294.326658801</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>305</v>
+      </c>
+      <c r="J478" t="n">
+        <v>301</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16726,11 +17670,19 @@
         <v>-2271294.326658801</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>305</v>
+      </c>
+      <c r="J479" t="n">
+        <v>301</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16759,11 +17711,19 @@
         <v>-2271294.326658801</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>305</v>
+      </c>
+      <c r="J480" t="n">
+        <v>301</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16792,11 +17752,19 @@
         <v>-2270768.979658801</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>305</v>
+      </c>
+      <c r="J481" t="n">
+        <v>301</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16825,11 +17793,19 @@
         <v>-2271276.099058801</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>307</v>
+      </c>
+      <c r="J482" t="n">
+        <v>301</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16858,11 +17834,19 @@
         <v>-2264790.133458801</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>306</v>
+      </c>
+      <c r="J483" t="n">
+        <v>301</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16891,11 +17875,19 @@
         <v>-2264790.133458801</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>307</v>
+      </c>
+      <c r="J484" t="n">
+        <v>301</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16924,11 +17916,19 @@
         <v>-2264750.133458801</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>307</v>
+      </c>
+      <c r="J485" t="n">
+        <v>301</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16957,11 +17957,19 @@
         <v>-2260013.285158801</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>309</v>
+      </c>
+      <c r="J486" t="n">
+        <v>301</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16992,9 +18000,17 @@
       <c r="H487" t="n">
         <v>1</v>
       </c>
-      <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="I487" t="n">
+        <v>310</v>
+      </c>
+      <c r="J487" t="n">
+        <v>301</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17025,9 +18041,17 @@
       <c r="H488" t="n">
         <v>1</v>
       </c>
-      <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="I488" t="n">
+        <v>310</v>
+      </c>
+      <c r="J488" t="n">
+        <v>301</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17056,11 +18080,19 @@
         <v>-2260345.861058801</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>310</v>
+      </c>
+      <c r="J489" t="n">
+        <v>301</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17089,11 +18121,19 @@
         <v>-2260245.861058801</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>308</v>
+      </c>
+      <c r="J490" t="n">
+        <v>301</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17122,11 +18162,19 @@
         <v>-2260245.861058801</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>309</v>
+      </c>
+      <c r="J491" t="n">
+        <v>301</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17158,8 +18206,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>301</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17191,8 +18245,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>301</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17224,8 +18284,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>301</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17254,11 +18320,17 @@
         <v>-2216929.325658801</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>301</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17287,11 +18359,17 @@
         <v>-2216929.325658801</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>301</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17320,11 +18398,17 @@
         <v>-2218385.167758801</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>301</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17353,11 +18437,17 @@
         <v>-2218635.167758801</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>301</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17386,11 +18476,17 @@
         <v>-2218635.167758801</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>301</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17419,11 +18515,17 @@
         <v>-2217818.385058801</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>301</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17455,8 +18557,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>301</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17488,8 +18596,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>301</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17518,11 +18632,17 @@
         <v>-2218328.949258801</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>301</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17554,8 +18674,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>301</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17587,8 +18713,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>301</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17620,8 +18752,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>301</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17653,8 +18791,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>301</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17686,8 +18830,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>301</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17719,8 +18869,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>301</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17752,14 +18908,20 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>301</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
       <c r="M510" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-10 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-10 BackTest ZRX.xlsx
@@ -451,7 +451,7 @@
         <v>39386.322</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>39506.322</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>39506.322</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>39506.322</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>47534.0133</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-148867.2399</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-149367.2399</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-147690.5807</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-147746.0439</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-147692.7789</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-147722.7789</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-147421.5947</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-155478.9829</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-189500.1239</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-183084.2786</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -8074,10 +8074,14 @@
         <v>-2341590.314109081</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>294</v>
+      </c>
+      <c r="J233" t="n">
+        <v>294</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8107,11 +8111,19 @@
         <v>-2340076.314109081</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>293</v>
+      </c>
+      <c r="J234" t="n">
+        <v>294</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8152,19 @@
         <v>-2340076.314109081</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>294</v>
+      </c>
+      <c r="J235" t="n">
+        <v>294</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,10 +8193,14 @@
         <v>-2340076.314109081</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>294</v>
+      </c>
+      <c r="J236" t="n">
+        <v>294</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
@@ -8206,11 +8230,19 @@
         <v>-2340070.914109081</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>294</v>
+      </c>
+      <c r="J237" t="n">
+        <v>294</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +8271,19 @@
         <v>-2340070.914109081</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>295</v>
+      </c>
+      <c r="J238" t="n">
+        <v>294</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8470,10 +8510,14 @@
         <v>-2332468.671291572</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>297</v>
+      </c>
+      <c r="J245" t="n">
+        <v>297</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
@@ -8503,11 +8547,19 @@
         <v>-2332468.671291572</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>296</v>
+      </c>
+      <c r="J246" t="n">
+        <v>297</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +8588,19 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>296</v>
+      </c>
+      <c r="J247" t="n">
+        <v>297</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8569,10 +8629,14 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>297</v>
+      </c>
+      <c r="J248" t="n">
+        <v>297</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
@@ -8602,11 +8666,19 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>297</v>
+      </c>
+      <c r="J249" t="n">
+        <v>297</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,11 +8707,19 @@
         <v>-2331691.843091572</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>297</v>
+      </c>
+      <c r="J250" t="n">
+        <v>297</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8668,10 +8748,14 @@
         <v>-2331220.715591572</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>297</v>
+      </c>
+      <c r="J251" t="n">
+        <v>297</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
@@ -8701,11 +8785,19 @@
         <v>-2331220.715591572</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>298</v>
+      </c>
+      <c r="J252" t="n">
+        <v>297</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +8826,19 @@
         <v>-2344999.391891572</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>298</v>
+      </c>
+      <c r="J253" t="n">
+        <v>297</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8767,11 +8867,19 @@
         <v>-2344099.537991572</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>295</v>
+      </c>
+      <c r="J254" t="n">
+        <v>297</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8800,11 +8908,19 @@
         <v>-2342069.313923356</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>298</v>
+      </c>
+      <c r="J255" t="n">
+        <v>297</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +8952,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>297</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +8991,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>297</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8902,8 +9030,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>297</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8932,11 +9066,19 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>302</v>
+      </c>
+      <c r="J259" t="n">
+        <v>297</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8965,11 +9107,19 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>301</v>
+      </c>
+      <c r="J260" t="n">
+        <v>297</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -8998,11 +9148,19 @@
         <v>-2354228.573238587</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>301</v>
+      </c>
+      <c r="J261" t="n">
+        <v>297</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9031,11 +9189,19 @@
         <v>-2354888.608438587</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>301</v>
+      </c>
+      <c r="J262" t="n">
+        <v>297</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9064,11 +9230,19 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>300</v>
+      </c>
+      <c r="J263" t="n">
+        <v>297</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9097,11 +9271,19 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>301</v>
+      </c>
+      <c r="J264" t="n">
+        <v>297</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9130,11 +9312,19 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>301</v>
+      </c>
+      <c r="J265" t="n">
+        <v>297</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9163,11 +9353,19 @@
         <v>-2354752.930838587</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>301</v>
+      </c>
+      <c r="J266" t="n">
+        <v>297</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9196,11 +9394,19 @@
         <v>-2342160.306838587</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>301</v>
+      </c>
+      <c r="J267" t="n">
+        <v>297</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9229,11 +9435,19 @@
         <v>-2342160.306838587</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>302</v>
+      </c>
+      <c r="J268" t="n">
+        <v>297</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9262,11 +9476,19 @@
         <v>-2347308.902438587</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>302</v>
+      </c>
+      <c r="J269" t="n">
+        <v>297</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9295,11 +9517,19 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>300</v>
+      </c>
+      <c r="J270" t="n">
+        <v>297</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9558,19 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>301</v>
+      </c>
+      <c r="J271" t="n">
+        <v>297</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9361,11 +9599,19 @@
         <v>-2347119.919638587</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>301</v>
+      </c>
+      <c r="J272" t="n">
+        <v>297</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9394,11 +9640,19 @@
         <v>-2342798.111738587</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>301</v>
+      </c>
+      <c r="J273" t="n">
+        <v>297</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9427,11 +9681,19 @@
         <v>-2342632.896433637</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>302</v>
+      </c>
+      <c r="J274" t="n">
+        <v>297</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +9722,19 @@
         <v>-2342632.896433637</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>303</v>
+      </c>
+      <c r="J275" t="n">
+        <v>297</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9493,11 +9763,19 @@
         <v>-2344263.084133637</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>303</v>
+      </c>
+      <c r="J276" t="n">
+        <v>297</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9526,11 +9804,19 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>300</v>
+      </c>
+      <c r="J277" t="n">
+        <v>297</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9559,11 +9845,19 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>302</v>
+      </c>
+      <c r="J278" t="n">
+        <v>297</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9592,11 +9886,19 @@
         <v>-2344243.084133637</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>302</v>
+      </c>
+      <c r="J279" t="n">
+        <v>297</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9625,11 +9927,19 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>302</v>
+      </c>
+      <c r="J280" t="n">
+        <v>297</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +9968,19 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>303</v>
+      </c>
+      <c r="J281" t="n">
+        <v>297</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9691,11 +10009,19 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>303</v>
+      </c>
+      <c r="J282" t="n">
+        <v>297</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9724,11 +10050,19 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>303</v>
+      </c>
+      <c r="J283" t="n">
+        <v>297</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9757,11 +10091,19 @@
         <v>-2322966.866033636</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>303</v>
+      </c>
+      <c r="J284" t="n">
+        <v>297</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9790,11 +10132,19 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>303</v>
+      </c>
+      <c r="J285" t="n">
+        <v>297</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9823,11 +10173,19 @@
         <v>-2323808.742933637</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>301</v>
+      </c>
+      <c r="J286" t="n">
+        <v>297</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9856,11 +10214,19 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>301</v>
+      </c>
+      <c r="J287" t="n">
+        <v>297</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9889,11 +10255,19 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>300</v>
+      </c>
+      <c r="J288" t="n">
+        <v>297</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9922,11 +10296,19 @@
         <v>-2325882.015758802</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>300</v>
+      </c>
+      <c r="J289" t="n">
+        <v>297</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9955,11 +10337,19 @@
         <v>-2325774.577058802</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>300</v>
+      </c>
+      <c r="J290" t="n">
+        <v>297</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -9988,11 +10378,19 @@
         <v>-2326026.577058802</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>302</v>
+      </c>
+      <c r="J291" t="n">
+        <v>297</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10021,11 +10419,19 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>301</v>
+      </c>
+      <c r="J292" t="n">
+        <v>297</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10054,11 +10460,19 @@
         <v>-2325704.541358802</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>302</v>
+      </c>
+      <c r="J293" t="n">
+        <v>297</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10087,11 +10501,19 @@
         <v>-2321967.135558803</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>302</v>
+      </c>
+      <c r="J294" t="n">
+        <v>297</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10120,11 +10542,19 @@
         <v>-2322015.848958802</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>303</v>
+      </c>
+      <c r="J295" t="n">
+        <v>297</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10153,11 +10583,19 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>301</v>
+      </c>
+      <c r="J296" t="n">
+        <v>297</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10186,11 +10624,19 @@
         <v>-2321985.848958802</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>302</v>
+      </c>
+      <c r="J297" t="n">
+        <v>297</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10219,11 +10665,19 @@
         <v>-2322253.948258802</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>302</v>
+      </c>
+      <c r="J298" t="n">
+        <v>297</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10252,11 +10706,19 @@
         <v>-2322130.826658802</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>301</v>
+      </c>
+      <c r="J299" t="n">
+        <v>297</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10285,11 +10747,19 @@
         <v>-2317816.545058802</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>303</v>
+      </c>
+      <c r="J300" t="n">
+        <v>297</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10318,11 +10788,19 @@
         <v>-2317889.167458802</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>304</v>
+      </c>
+      <c r="J301" t="n">
+        <v>297</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10351,11 +10829,19 @@
         <v>-2317889.167458802</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>302</v>
+      </c>
+      <c r="J302" t="n">
+        <v>297</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10384,11 +10870,19 @@
         <v>-2317837.988258802</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>302</v>
+      </c>
+      <c r="J303" t="n">
+        <v>297</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10417,11 +10911,19 @@
         <v>-2318540.253458802</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>303</v>
+      </c>
+      <c r="J304" t="n">
+        <v>297</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10450,11 +10952,19 @@
         <v>-2318540.253458802</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>302</v>
+      </c>
+      <c r="J305" t="n">
+        <v>297</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10993,19 @@
         <v>-2317101.995058802</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>302</v>
+      </c>
+      <c r="J306" t="n">
+        <v>297</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +11034,19 @@
         <v>-2317101.995058802</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>303</v>
+      </c>
+      <c r="J307" t="n">
+        <v>297</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10552,8 +11078,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>297</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10585,8 +11117,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>297</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10618,8 +11156,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>297</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10651,8 +11195,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>297</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10684,8 +11234,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>297</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10717,8 +11273,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>297</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10750,8 +11312,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>297</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10783,8 +11351,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>297</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10816,8 +11390,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>297</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10849,8 +11429,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>297</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10882,8 +11468,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>297</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11504,17 @@
         <v>-2293970.841658802</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>297</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -10945,11 +11543,17 @@
         <v>-2277503.529758802</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>297</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -10978,11 +11582,17 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>297</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11011,11 +11621,17 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>297</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11044,11 +11660,17 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>297</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11077,11 +11699,17 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>297</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11110,11 +11738,17 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>297</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +11777,17 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>297</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11176,11 +11816,17 @@
         <v>-2272029.674958802</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>297</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11209,11 +11855,17 @@
         <v>-2267341.606058802</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>297</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11242,11 +11894,17 @@
         <v>-2278850.503158803</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>297</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11275,11 +11933,17 @@
         <v>-2278850.503158803</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>297</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11308,11 +11972,17 @@
         <v>-2278435.091458803</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>297</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11341,11 +12011,17 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>297</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11374,11 +12050,17 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>297</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11407,11 +12089,17 @@
         <v>-2276725.124158802</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>297</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11440,11 +12128,17 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>297</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +12167,17 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>297</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +12206,17 @@
         <v>-2275022.618858803</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>297</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>297</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +12287,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>297</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +12326,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>297</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>297</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>297</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>297</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +12482,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>297</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>297</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +12560,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>297</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12599,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>297</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12638,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>297</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12677,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>297</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -11935,15 +12713,23 @@
         <v>-2246666.973758803</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>297</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
+        <v>1.082542087542088</v>
+      </c>
+      <c r="M350" t="n">
+        <v>1.0580204778157</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -11968,7 +12754,7 @@
         <v>-2246666.973758803</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12787,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12820,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12853,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12886,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12919,7 @@
         <v>-2249096.335158803</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12952,7 @@
         <v>-2249034.832458802</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12985,7 @@
         <v>-2249034.832458802</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +13018,7 @@
         <v>-2228572.063558802</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +13051,7 @@
         <v>-2228994.583958802</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +13084,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +13117,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +13150,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +13183,7 @@
         <v>-2224490.838258802</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +13216,7 @@
         <v>-2215047.316958802</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +13249,7 @@
         <v>-2207185.644458802</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +13282,7 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +13315,7 @@
         <v>-2207432.705658802</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +13348,7 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +13381,7 @@
         <v>-2203433.877858802</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +13414,7 @@
         <v>-2205592.686058802</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +13447,7 @@
         <v>-2224218.687058802</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +13480,7 @@
         <v>-2225158.447058802</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +13513,7 @@
         <v>-2225209.807058802</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +13546,7 @@
         <v>-2225118.173958802</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +13579,7 @@
         <v>-2224273.657158802</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +13612,7 @@
         <v>-2221878.691558802</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +13645,7 @@
         <v>-2220859.355458802</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +13678,7 @@
         <v>-2220875.802758802</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +13711,7 @@
         <v>-2220921.802758802</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +13744,7 @@
         <v>-2221018.242858802</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +13777,7 @@
         <v>-2230971.058258802</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13123,7 +13909,7 @@
         <v>-2229640.737458802</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13942,7 @@
         <v>-2233866.218158802</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14377,14 +15163,10 @@
         <v>-2230667.100558802</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>307</v>
-      </c>
-      <c r="J424" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
@@ -14417,14 +15199,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>307</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14456,14 +15232,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>307</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14525,17 +15295,11 @@
         <v>-2264708.756558802</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14564,17 +15328,11 @@
         <v>-2264168.756558802</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14603,17 +15361,11 @@
         <v>-2263628.427558802</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14646,11 +15398,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14683,11 +15431,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14720,11 +15464,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14757,11 +15497,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14794,11 +15530,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14831,11 +15563,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14868,11 +15596,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14905,11 +15629,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14942,11 +15662,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14979,11 +15695,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15016,11 +15728,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15053,11 +15761,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15090,11 +15794,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15127,11 +15827,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15164,11 +15860,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15201,11 +15893,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15238,11 +15926,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15275,11 +15959,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15312,11 +15992,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15349,11 +16025,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15386,11 +16058,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15423,11 +16091,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15460,11 +16124,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15497,11 +16157,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15534,11 +16190,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15571,11 +16223,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15608,11 +16256,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15645,11 +16289,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15682,11 +16322,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15719,11 +16355,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15756,11 +16388,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15793,11 +16421,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15830,11 +16454,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15867,11 +16487,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15904,11 +16520,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15941,11 +16553,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15978,11 +16586,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16015,11 +16619,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16052,11 +16652,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16089,11 +16685,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16126,11 +16718,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16163,11 +16751,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16200,11 +16784,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16237,11 +16817,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16274,11 +16850,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16311,11 +16883,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16348,11 +16916,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +16949,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16422,11 +16982,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16459,11 +17015,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16496,11 +17048,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16533,11 +17081,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16570,11 +17114,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16607,11 +17147,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16644,11 +17180,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16681,11 +17213,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16718,11 +17246,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16755,11 +17279,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16792,11 +17312,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +17345,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16866,11 +17378,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16903,11 +17411,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16940,11 +17444,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16977,11 +17477,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17014,11 +17510,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17051,11 +17543,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17088,11 +17576,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17125,11 +17609,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17162,11 +17642,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17199,11 +17675,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17236,11 +17708,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17273,11 +17741,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17310,11 +17774,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17807,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17384,11 +17840,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17421,11 +17873,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17458,11 +17906,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17495,11 +17939,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17532,11 +17972,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17569,11 +18005,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
